--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$115</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$119</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="287">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -140,6 +140,81 @@
   </si>
   <si>
     <t xml:space="preserve">夢人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">た～る♪
+たーる！
+たーるっ
+たる</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">SpMeteor</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">メテオ！
+降り注げ星の涙！
+来たれ、終焉の炎…メテオ！ 
+星々よ、我が声に応えよ&amp;…メテオ！
+この空に希望は無く、この地に慈悲も無い&amp;ならばーー落ちよ、メテオ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phrase_ActSwarm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スウォーム！
+…スウォーム！
+散れ！
+その身に刻め！スウォーム！
+さあ舞え！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">phrase_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ActBladeStorm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">斬撃無双！
+斬り刻むッ！
+これで終わり{よ}！</t>
   </si>
   <si>
     <t xml:space="preserve">onFire</t>
@@ -1617,9 +1692,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2088360</xdr:colOff>
+      <xdr:colOff>2086200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1629,7 +1704,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50988960" cy="132480"/>
+          <a:ext cx="50986800" cy="130320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1737,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>525960</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>324720</xdr:rowOff>
+      <xdr:colOff>523800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>322560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1674,7 +1749,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55197000" cy="32512320"/>
+          <a:ext cx="55194840" cy="34972560"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1809,14 +1884,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ116"/>
+  <dimension ref="A1:CJ120"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B21" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A21" activeCellId="0" sqref="A21"/>
-      <selection pane="bottomRight" activeCell="C23" activeCellId="0" sqref="C23"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2052,7 +2127,7 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2124,8 +2199,8 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
+    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -2160,14 +2235,13 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
+    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="4"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
       <c r="W7" s="3"/>
@@ -2197,8 +2271,8 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
+    <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2240,7 +2314,6 @@
       <c r="B9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
       <c r="W9" s="3"/>
@@ -2270,15 +2343,13 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
       <c r="W10" s="3"/>
@@ -2308,15 +2379,14 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
+    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2346,15 +2416,13 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
+    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2384,7 +2452,7 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
@@ -2421,7 +2489,7 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
@@ -2429,6 +2497,7 @@
         <v>60</v>
       </c>
       <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2458,13 +2527,15 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2494,13 +2565,15 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2530,7 +2603,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2538,7 +2611,6 @@
         <v>66</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2568,13 +2640,14 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="C18" s="4"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2604,11 +2677,11 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="4" t="s">
         <v>70</v>
       </c>
       <c r="U19" s="3"/>
@@ -2640,14 +2713,13 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="4"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2677,7 +2749,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2685,6 +2757,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2714,14 +2787,13 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="4"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2751,14 +2823,13 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2788,14 +2859,14 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="24" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E24" s="4"/>
+      <c r="C24" s="4"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2825,13 +2896,14 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>82</v>
       </c>
+      <c r="C25" s="4"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -2861,13 +2933,14 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="D26" s="4"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -2897,13 +2970,14 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="C27" s="4"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -2933,13 +3007,14 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="E28" s="4"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -2969,7 +3044,7 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
@@ -3005,15 +3080,13 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -3043,14 +3116,13 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F31" s="4"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -3116,7 +3188,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3152,13 +3224,15 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -3188,13 +3262,14 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="4" t="s">
         <v>102</v>
       </c>
+      <c r="F35" s="4"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -3224,7 +3299,7 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -3260,7 +3335,7 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
@@ -3296,7 +3371,7 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
@@ -3332,11 +3407,11 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="1" t="s">
         <v>110</v>
       </c>
       <c r="U39" s="3"/>
@@ -3368,31 +3443,13 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="5" t="s">
+    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
-      <c r="N40" s="5"/>
-      <c r="O40" s="5"/>
-      <c r="P40" s="5"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -3422,31 +3479,13 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
+    <row r="41" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
       <c r="U41" s="3"/>
       <c r="V41" s="3"/>
       <c r="W41" s="3"/>
@@ -3476,31 +3515,13 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="5" t="s">
+    <row r="42" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
       <c r="U42" s="3"/>
       <c r="V42" s="3"/>
       <c r="W42" s="3"/>
@@ -3530,11 +3551,11 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="4" t="s">
         <v>118</v>
       </c>
       <c r="U43" s="3"/>
@@ -3566,13 +3587,31 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+    <row r="44" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5"/>
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="5"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -3602,13 +3641,31 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="5" t="s">
         <v>122</v>
       </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+      <c r="N45" s="5"/>
+      <c r="O45" s="5"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="5"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -3638,13 +3695,31 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="1" t="s">
+    <row r="46" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+      <c r="N46" s="5"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="5"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -3674,11 +3749,11 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="1" t="s">
         <v>126</v>
       </c>
       <c r="U47" s="3"/>
@@ -3710,11 +3785,11 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="1" t="s">
         <v>128</v>
       </c>
       <c r="U48" s="3"/>
@@ -3782,11 +3857,11 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="1" t="s">
         <v>132</v>
       </c>
       <c r="U50" s="3"/>
@@ -3818,11 +3893,11 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>134</v>
       </c>
       <c r="U51" s="3"/>
@@ -3854,11 +3929,11 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="4" t="s">
         <v>136</v>
       </c>
       <c r="U52" s="3"/>
@@ -3926,7 +4001,7 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
@@ -3966,6 +4041,9 @@
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
+      <c r="B55" s="1" t="s">
+        <v>142</v>
+      </c>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
@@ -3995,12 +4073,12 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="4" t="s">
         <v>143</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
@@ -4033,10 +4111,10 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="U57" s="3"/>
       <c r="V57" s="3"/>
@@ -4067,12 +4145,12 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="U58" s="3"/>
       <c r="V58" s="3"/>
@@ -4105,10 +4183,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
@@ -4139,12 +4214,12 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -4175,12 +4250,12 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="B61" s="4" t="s">
         <v>152</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
@@ -4211,12 +4286,12 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -4247,11 +4322,11 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="1" t="s">
         <v>156</v>
       </c>
       <c r="U63" s="3"/>
@@ -4283,7 +4358,7 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>157</v>
       </c>
@@ -4319,11 +4394,11 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="4" t="s">
         <v>160</v>
       </c>
       <c r="U65" s="3"/>
@@ -4355,7 +4430,7 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -4427,11 +4502,11 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="4" t="s">
         <v>166</v>
       </c>
       <c r="U68" s="3"/>
@@ -4499,11 +4574,11 @@
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>170</v>
       </c>
       <c r="U70" s="3"/>
@@ -4535,11 +4610,11 @@
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>172</v>
       </c>
       <c r="U71" s="3"/>
@@ -4607,11 +4682,11 @@
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="1" t="s">
         <v>176</v>
       </c>
       <c r="U73" s="3"/>
@@ -4679,11 +4754,11 @@
       <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="1" t="s">
         <v>180</v>
       </c>
       <c r="U75" s="3"/>
@@ -4722,71 +4797,165 @@
       <c r="B76" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U76" s="3"/>
+      <c r="V76" s="3"/>
+      <c r="W76" s="3"/>
+      <c r="X76" s="3"/>
+      <c r="Y76" s="3"/>
+      <c r="Z76" s="3"/>
+      <c r="AA76" s="3"/>
+      <c r="AB76" s="3"/>
+      <c r="AC76" s="3"/>
+      <c r="AD76" s="3"/>
+      <c r="AE76" s="3"/>
+      <c r="AF76" s="3"/>
+      <c r="AG76" s="3"/>
+      <c r="AH76" s="3"/>
+      <c r="AI76" s="3"/>
+      <c r="AJ76" s="3"/>
+      <c r="AK76" s="3"/>
+      <c r="AL76" s="3"/>
+      <c r="AM76" s="3"/>
+      <c r="AN76" s="3"/>
+      <c r="AO76" s="3"/>
+      <c r="AP76" s="3"/>
+      <c r="AQ76" s="3"/>
+      <c r="AR76" s="3"/>
+      <c r="AS76" s="3"/>
+      <c r="AT76" s="3"/>
+      <c r="AU76" s="3"/>
+      <c r="AV76" s="3"/>
+    </row>
+    <row r="77" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="B77" s="4" t="s">
         <v>184</v>
       </c>
+      <c r="U77" s="3"/>
+      <c r="V77" s="3"/>
+      <c r="W77" s="3"/>
+      <c r="X77" s="3"/>
+      <c r="Y77" s="3"/>
+      <c r="Z77" s="3"/>
+      <c r="AA77" s="3"/>
+      <c r="AB77" s="3"/>
+      <c r="AC77" s="3"/>
+      <c r="AD77" s="3"/>
+      <c r="AE77" s="3"/>
+      <c r="AF77" s="3"/>
+      <c r="AG77" s="3"/>
+      <c r="AH77" s="3"/>
+      <c r="AI77" s="3"/>
+      <c r="AJ77" s="3"/>
+      <c r="AK77" s="3"/>
+      <c r="AL77" s="3"/>
+      <c r="AM77" s="3"/>
+      <c r="AN77" s="3"/>
+      <c r="AO77" s="3"/>
+      <c r="AP77" s="3"/>
+      <c r="AQ77" s="3"/>
+      <c r="AR77" s="3"/>
+      <c r="AS77" s="3"/>
+      <c r="AT77" s="3"/>
+      <c r="AU77" s="3"/>
+      <c r="AV77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="79" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="U78" s="3"/>
+      <c r="V78" s="3"/>
+      <c r="W78" s="3"/>
+      <c r="X78" s="3"/>
+      <c r="Y78" s="3"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="3"/>
+      <c r="AB78" s="3"/>
+      <c r="AC78" s="3"/>
+      <c r="AD78" s="3"/>
+      <c r="AE78" s="3"/>
+      <c r="AF78" s="3"/>
+      <c r="AG78" s="3"/>
+      <c r="AH78" s="3"/>
+      <c r="AI78" s="3"/>
+      <c r="AJ78" s="3"/>
+      <c r="AK78" s="3"/>
+      <c r="AL78" s="3"/>
+      <c r="AM78" s="3"/>
+      <c r="AN78" s="3"/>
+      <c r="AO78" s="3"/>
+      <c r="AP78" s="3"/>
+      <c r="AQ78" s="3"/>
+      <c r="AR78" s="3"/>
+      <c r="AS78" s="3"/>
+      <c r="AT78" s="3"/>
+      <c r="AU78" s="3"/>
+      <c r="AV78" s="3"/>
+    </row>
+    <row r="79" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>188</v>
+      </c>
+      <c r="U79" s="3"/>
+      <c r="V79" s="3"/>
+      <c r="W79" s="3"/>
+      <c r="X79" s="3"/>
+      <c r="Y79" s="3"/>
+      <c r="Z79" s="3"/>
+      <c r="AA79" s="3"/>
+      <c r="AB79" s="3"/>
+      <c r="AC79" s="3"/>
+      <c r="AD79" s="3"/>
+      <c r="AE79" s="3"/>
+      <c r="AF79" s="3"/>
+      <c r="AG79" s="3"/>
+      <c r="AH79" s="3"/>
+      <c r="AI79" s="3"/>
+      <c r="AJ79" s="3"/>
+      <c r="AK79" s="3"/>
+      <c r="AL79" s="3"/>
+      <c r="AM79" s="3"/>
+      <c r="AN79" s="3"/>
+      <c r="AO79" s="3"/>
+      <c r="AP79" s="3"/>
+      <c r="AQ79" s="3"/>
+      <c r="AR79" s="3"/>
+      <c r="AS79" s="3"/>
+      <c r="AT79" s="3"/>
+      <c r="AU79" s="3"/>
+      <c r="AV79" s="3"/>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B80" s="4" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="81" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B81" s="4" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5" t="s">
+      <c r="B81" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="B82" s="4" t="s">
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5"/>
-      <c r="K82" s="5"/>
-      <c r="L82" s="5"/>
-      <c r="M82" s="5"/>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5"/>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-    </row>
-    <row r="83" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="83" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>194</v>
       </c>
@@ -4794,7 +4963,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>196</v>
       </c>
@@ -4802,7 +4971,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -4810,93 +4979,57 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="1" t="s">
+    <row r="86" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
         <v>200</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+    </row>
+    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-    </row>
-    <row r="88" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="6" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4"/>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4"/>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-      <c r="S88" s="4"/>
-      <c r="T88" s="4"/>
-    </row>
-    <row r="89" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>208</v>
       </c>
@@ -4904,23 +5037,59 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+    <row r="91" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="1" t="s">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="6" t="s">
         <v>212</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="4"/>
+      <c r="Q92" s="4"/>
+      <c r="R92" s="4"/>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+    </row>
+    <row r="93" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>214</v>
       </c>
@@ -4946,116 +5115,62 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+    <row r="94" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-    </row>
-    <row r="95" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="95" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="4" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E95" s="4" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G95" s="4" t="s">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="H95" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>225</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="J95" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="K95" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="L95" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="M95" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="N95" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="O95" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="P95" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q95" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="R95" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="S95" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="T95" s="4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="B96" s="4" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B97" s="4" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>243</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -5076,23 +5191,77 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C99" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H99" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="I99" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J99" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="K99" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M99" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="N99" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="O99" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="P99" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q99" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="R99" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="S99" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="T99" s="4" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>248</v>
       </c>
@@ -5100,89 +5269,53 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="J102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="L102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="M102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="N102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="O102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="P102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="Q102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="R102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="T102" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="B103" s="7" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="B104" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="4" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5193,8 +5326,62 @@
       <c r="B106" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="K106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="L106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="M106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="N106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="O106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="P106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="R106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="S106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="T106" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>260</v>
       </c>
@@ -5202,244 +5389,276 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="AX108" s="3"/>
-      <c r="AY108" s="3"/>
-      <c r="AZ108" s="3"/>
-      <c r="BA108" s="3"/>
-      <c r="BB108" s="3"/>
-      <c r="BC108" s="3"/>
-      <c r="BD108" s="3"/>
-      <c r="BE108" s="3"/>
-      <c r="BF108" s="3"/>
-      <c r="BG108" s="3"/>
-      <c r="BH108" s="3"/>
-      <c r="BI108" s="3"/>
-      <c r="BJ108" s="3"/>
-      <c r="BK108" s="3"/>
-      <c r="BL108" s="3"/>
-      <c r="BM108" s="3"/>
-      <c r="BN108" s="3"/>
-      <c r="BO108" s="3"/>
-      <c r="BP108" s="3"/>
-      <c r="BQ108" s="3"/>
-      <c r="BR108" s="3"/>
-      <c r="BS108" s="3"/>
-      <c r="BT108" s="3"/>
-      <c r="BU108" s="3"/>
-      <c r="BV108" s="3"/>
-      <c r="BW108" s="3"/>
-      <c r="BX108" s="3"/>
-      <c r="BY108" s="3"/>
-      <c r="BZ108" s="3"/>
-      <c r="CA108" s="3"/>
-      <c r="CB108" s="3"/>
-      <c r="CC108" s="3"/>
-      <c r="CD108" s="3"/>
-      <c r="CE108" s="3"/>
-      <c r="CF108" s="3"/>
-      <c r="CG108" s="3"/>
-      <c r="CH108" s="3"/>
-      <c r="CI108" s="3"/>
-      <c r="CJ108" s="3"/>
-    </row>
-    <row r="109" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AX110" s="3"/>
-      <c r="AY110" s="3"/>
-      <c r="AZ110" s="3"/>
-      <c r="BA110" s="3"/>
-      <c r="BB110" s="3"/>
-      <c r="BC110" s="3"/>
-      <c r="BD110" s="3"/>
-      <c r="BE110" s="3"/>
-      <c r="BF110" s="3"/>
-      <c r="BG110" s="3"/>
-      <c r="BH110" s="3"/>
-      <c r="BI110" s="3"/>
-      <c r="BJ110" s="3"/>
-      <c r="BK110" s="3"/>
-      <c r="BL110" s="3"/>
-      <c r="BM110" s="3"/>
-      <c r="BN110" s="3"/>
-      <c r="BO110" s="3"/>
-      <c r="BP110" s="3"/>
-      <c r="BQ110" s="3"/>
-      <c r="BR110" s="3"/>
-      <c r="BS110" s="3"/>
-      <c r="BT110" s="3"/>
-      <c r="BU110" s="3"/>
-      <c r="BV110" s="3"/>
-      <c r="BW110" s="3"/>
-      <c r="BX110" s="3"/>
-      <c r="BY110" s="3"/>
-      <c r="BZ110" s="3"/>
-      <c r="CA110" s="3"/>
-      <c r="CB110" s="3"/>
-      <c r="CC110" s="3"/>
-      <c r="CD110" s="3"/>
-      <c r="CE110" s="3"/>
-      <c r="CF110" s="3"/>
-      <c r="CG110" s="3"/>
-      <c r="CH110" s="3"/>
-      <c r="CI110" s="3"/>
-      <c r="CJ110" s="3"/>
-    </row>
-    <row r="111" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="111" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="AX111" s="3"/>
-      <c r="AY111" s="3"/>
-      <c r="AZ111" s="3"/>
-      <c r="BA111" s="3"/>
-      <c r="BB111" s="3"/>
-      <c r="BC111" s="3"/>
-      <c r="BD111" s="3"/>
-      <c r="BE111" s="3"/>
-      <c r="BF111" s="3"/>
-      <c r="BG111" s="3"/>
-      <c r="BH111" s="3"/>
-      <c r="BI111" s="3"/>
-      <c r="BJ111" s="3"/>
-      <c r="BK111" s="3"/>
-      <c r="BL111" s="3"/>
-      <c r="BM111" s="3"/>
-      <c r="BN111" s="3"/>
-      <c r="BO111" s="3"/>
-      <c r="BP111" s="3"/>
-      <c r="BQ111" s="3"/>
-      <c r="BR111" s="3"/>
-      <c r="BS111" s="3"/>
-      <c r="BT111" s="3"/>
-      <c r="BU111" s="3"/>
-      <c r="BV111" s="3"/>
-      <c r="BW111" s="3"/>
-      <c r="BX111" s="3"/>
-      <c r="BY111" s="3"/>
-      <c r="BZ111" s="3"/>
-      <c r="CA111" s="3"/>
-      <c r="CB111" s="3"/>
-      <c r="CC111" s="3"/>
-      <c r="CD111" s="3"/>
-      <c r="CE111" s="3"/>
-      <c r="CF111" s="3"/>
-      <c r="CG111" s="3"/>
-      <c r="CH111" s="3"/>
-      <c r="CI111" s="3"/>
-      <c r="CJ111" s="3"/>
-    </row>
-    <row r="112" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>270</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C112" s="1"/>
-      <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-      <c r="F112" s="1"/>
-      <c r="G112" s="1"/>
-      <c r="H112" s="1"/>
-      <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-      <c r="K112" s="1"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1"/>
-      <c r="N112" s="1"/>
-      <c r="O112" s="1"/>
-      <c r="P112" s="1"/>
-      <c r="Q112" s="1"/>
-      <c r="R112" s="1"/>
-      <c r="S112" s="1"/>
-      <c r="T112" s="1"/>
-      <c r="U112" s="1"/>
-      <c r="V112" s="1"/>
-      <c r="W112" s="1"/>
-      <c r="X112" s="1"/>
-      <c r="Y112" s="1"/>
-      <c r="Z112" s="1"/>
-      <c r="AA112" s="1"/>
-      <c r="AB112" s="1"/>
-      <c r="AC112" s="1"/>
-      <c r="AD112" s="1"/>
-      <c r="AE112" s="1"/>
-      <c r="AF112" s="1"/>
-      <c r="AG112" s="1"/>
-      <c r="AH112" s="1"/>
-      <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
-      <c r="AK112" s="1"/>
-      <c r="AL112" s="1"/>
-      <c r="AM112" s="1"/>
-      <c r="AN112" s="1"/>
-      <c r="AO112" s="1"/>
-      <c r="AP112" s="1"/>
-      <c r="AQ112" s="1"/>
-      <c r="AR112" s="1"/>
-      <c r="AS112" s="1"/>
-      <c r="AT112" s="1"/>
-      <c r="AU112" s="1"/>
-      <c r="AV112" s="1"/>
-      <c r="AW112" s="1"/>
-    </row>
-    <row r="113" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>271</v>
+      </c>
+      <c r="AX112" s="3"/>
+      <c r="AY112" s="3"/>
+      <c r="AZ112" s="3"/>
+      <c r="BA112" s="3"/>
+      <c r="BB112" s="3"/>
+      <c r="BC112" s="3"/>
+      <c r="BD112" s="3"/>
+      <c r="BE112" s="3"/>
+      <c r="BF112" s="3"/>
+      <c r="BG112" s="3"/>
+      <c r="BH112" s="3"/>
+      <c r="BI112" s="3"/>
+      <c r="BJ112" s="3"/>
+      <c r="BK112" s="3"/>
+      <c r="BL112" s="3"/>
+      <c r="BM112" s="3"/>
+      <c r="BN112" s="3"/>
+      <c r="BO112" s="3"/>
+      <c r="BP112" s="3"/>
+      <c r="BQ112" s="3"/>
+      <c r="BR112" s="3"/>
+      <c r="BS112" s="3"/>
+      <c r="BT112" s="3"/>
+      <c r="BU112" s="3"/>
+      <c r="BV112" s="3"/>
+      <c r="BW112" s="3"/>
+      <c r="BX112" s="3"/>
+      <c r="BY112" s="3"/>
+      <c r="BZ112" s="3"/>
+      <c r="CA112" s="3"/>
+      <c r="CB112" s="3"/>
+      <c r="CC112" s="3"/>
+      <c r="CD112" s="3"/>
+      <c r="CE112" s="3"/>
+      <c r="CF112" s="3"/>
+      <c r="CG112" s="3"/>
+      <c r="CH112" s="3"/>
+      <c r="CI112" s="3"/>
+      <c r="CJ112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B114" s="8" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="AX114" s="3"/>
+      <c r="AY114" s="3"/>
+      <c r="AZ114" s="3"/>
+      <c r="BA114" s="3"/>
+      <c r="BB114" s="3"/>
+      <c r="BC114" s="3"/>
+      <c r="BD114" s="3"/>
+      <c r="BE114" s="3"/>
+      <c r="BF114" s="3"/>
+      <c r="BG114" s="3"/>
+      <c r="BH114" s="3"/>
+      <c r="BI114" s="3"/>
+      <c r="BJ114" s="3"/>
+      <c r="BK114" s="3"/>
+      <c r="BL114" s="3"/>
+      <c r="BM114" s="3"/>
+      <c r="BN114" s="3"/>
+      <c r="BO114" s="3"/>
+      <c r="BP114" s="3"/>
+      <c r="BQ114" s="3"/>
+      <c r="BR114" s="3"/>
+      <c r="BS114" s="3"/>
+      <c r="BT114" s="3"/>
+      <c r="BU114" s="3"/>
+      <c r="BV114" s="3"/>
+      <c r="BW114" s="3"/>
+      <c r="BX114" s="3"/>
+      <c r="BY114" s="3"/>
+      <c r="BZ114" s="3"/>
+      <c r="CA114" s="3"/>
+      <c r="CB114" s="3"/>
+      <c r="CC114" s="3"/>
+      <c r="CD114" s="3"/>
+      <c r="CE114" s="3"/>
+      <c r="CF114" s="3"/>
+      <c r="CG114" s="3"/>
+      <c r="CH114" s="3"/>
+      <c r="CI114" s="3"/>
+      <c r="CJ114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B115" s="8" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="AX115" s="3"/>
+      <c r="AY115" s="3"/>
+      <c r="AZ115" s="3"/>
+      <c r="BA115" s="3"/>
+      <c r="BB115" s="3"/>
+      <c r="BC115" s="3"/>
+      <c r="BD115" s="3"/>
+      <c r="BE115" s="3"/>
+      <c r="BF115" s="3"/>
+      <c r="BG115" s="3"/>
+      <c r="BH115" s="3"/>
+      <c r="BI115" s="3"/>
+      <c r="BJ115" s="3"/>
+      <c r="BK115" s="3"/>
+      <c r="BL115" s="3"/>
+      <c r="BM115" s="3"/>
+      <c r="BN115" s="3"/>
+      <c r="BO115" s="3"/>
+      <c r="BP115" s="3"/>
+      <c r="BQ115" s="3"/>
+      <c r="BR115" s="3"/>
+      <c r="BS115" s="3"/>
+      <c r="BT115" s="3"/>
+      <c r="BU115" s="3"/>
+      <c r="BV115" s="3"/>
+      <c r="BW115" s="3"/>
+      <c r="BX115" s="3"/>
+      <c r="BY115" s="3"/>
+      <c r="BZ115" s="3"/>
+      <c r="CA115" s="3"/>
+      <c r="CB115" s="3"/>
+      <c r="CC115" s="3"/>
+      <c r="CD115" s="3"/>
+      <c r="CE115" s="3"/>
+      <c r="CF115" s="3"/>
+      <c r="CG115" s="3"/>
+      <c r="CH115" s="3"/>
+      <c r="CI115" s="3"/>
+      <c r="CJ115" s="3"/>
+    </row>
+    <row r="116" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>278</v>
+        <v>134</v>
+      </c>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1"/>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+      <c r="K116" s="1"/>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1"/>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1"/>
+      <c r="P116" s="1"/>
+      <c r="Q116" s="1"/>
+      <c r="R116" s="1"/>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
+      <c r="V116" s="1"/>
+      <c r="W116" s="1"/>
+      <c r="X116" s="1"/>
+      <c r="Y116" s="1"/>
+      <c r="Z116" s="1"/>
+      <c r="AA116" s="1"/>
+      <c r="AB116" s="1"/>
+      <c r="AC116" s="1"/>
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="1"/>
+      <c r="AF116" s="1"/>
+      <c r="AG116" s="1"/>
+      <c r="AH116" s="1"/>
+      <c r="AI116" s="1"/>
+      <c r="AJ116" s="1"/>
+      <c r="AK116" s="1"/>
+      <c r="AL116" s="1"/>
+      <c r="AM116" s="1"/>
+      <c r="AN116" s="1"/>
+      <c r="AO116" s="1"/>
+      <c r="AP116" s="1"/>
+      <c r="AQ116" s="1"/>
+      <c r="AR116" s="1"/>
+      <c r="AS116" s="1"/>
+      <c r="AT116" s="1"/>
+      <c r="AU116" s="1"/>
+      <c r="AV116" s="1"/>
+      <c r="AW116" s="1"/>
+    </row>
+    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:T115"/>
+  <autoFilter ref="A2:T119"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$119</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$121</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="291">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -977,6 +977,26 @@
 うるさい{よ}。
 やめて{くれ}！
 何のつもりだ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodNice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">美味しい{よ}。
+いいもの{だ}。
+これ、好きかも。
+この味、思い出す{よ}。
+久しぶり{だ}。
+悪くない{よ}。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foodBored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">またこれか。
+飽きた{よ}。
+いつもこれ{だ}。
+食べ飽きた{よ}。</t>
   </si>
   <si>
     <t xml:space="preserve">musicBored</t>
@@ -1692,9 +1712,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2086200</xdr:colOff>
+      <xdr:colOff>2085480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1704,7 +1724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50986800" cy="130320"/>
+          <a:ext cx="50986080" cy="129600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,9 +1757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523800</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>51</xdr:row>
-      <xdr:rowOff>322560</xdr:rowOff>
+      <xdr:rowOff>321840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1749,7 +1769,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55194840" cy="34972560"/>
+          <a:ext cx="55194120" cy="34971840"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1884,14 +1904,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ120"/>
+  <dimension ref="A1:CJ122"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
+      <selection pane="bottomRight" activeCell="D87" activeCellId="0" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5013,7 +5033,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
@@ -5021,7 +5041,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>206</v>
       </c>
@@ -5029,7 +5049,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>208</v>
       </c>
@@ -5037,59 +5057,23 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
+    <row r="91" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="5"/>
-      <c r="L91" s="5"/>
-      <c r="M91" s="5"/>
-      <c r="N91" s="5"/>
-      <c r="O91" s="5"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="T91" s="5"/>
-    </row>
-    <row r="92" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="s">
+    </row>
+    <row r="92" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-      <c r="E92" s="4"/>
-      <c r="F92" s="4"/>
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
-      <c r="I92" s="4"/>
-      <c r="J92" s="4"/>
-      <c r="K92" s="4"/>
-      <c r="L92" s="4"/>
-      <c r="M92" s="4"/>
-      <c r="N92" s="4"/>
-      <c r="O92" s="4"/>
-      <c r="P92" s="4"/>
-      <c r="Q92" s="4"/>
-      <c r="R92" s="4"/>
-      <c r="S92" s="4"/>
-      <c r="T92" s="4"/>
-    </row>
-    <row r="93" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="93" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
         <v>214</v>
       </c>
@@ -5115,23 +5099,59 @@
       <c r="S93" s="5"/>
       <c r="T93" s="5"/>
     </row>
-    <row r="94" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="1" t="s">
+    <row r="94" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="6" t="s">
         <v>216</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="1" t="s">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="4"/>
+      <c r="Q94" s="4"/>
+      <c r="R94" s="4"/>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+    </row>
+    <row r="95" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
@@ -5139,249 +5159,195 @@
         <v>221</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
+    <row r="97" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-    </row>
-    <row r="98" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
+    </row>
+    <row r="98" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="5"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-      <c r="R98" s="5"/>
-      <c r="S98" s="5"/>
-      <c r="T98" s="5"/>
-    </row>
-    <row r="99" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+    </row>
+    <row r="99" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="5" t="s">
         <v>226</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="4" t="s">
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="5"/>
+      <c r="O99" s="5"/>
+      <c r="P99" s="5"/>
+      <c r="Q99" s="5"/>
+      <c r="R99" s="5"/>
+      <c r="S99" s="5"/>
+      <c r="T99" s="5"/>
+    </row>
+    <row r="100" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D99" s="4" t="s">
+      <c r="B100" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E99" s="4" t="s">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="B101" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="G99" s="4" t="s">
+      <c r="C101" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="H99" s="4" t="s">
+      <c r="D101" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="I99" s="4" t="s">
+      <c r="E101" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J99" s="4" t="s">
+      <c r="F101" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="K99" s="4" t="s">
+      <c r="G101" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="L99" s="4" t="s">
+      <c r="H101" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="M99" s="4" t="s">
+      <c r="I101" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="N99" s="4" t="s">
+      <c r="J101" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="O99" s="4" t="s">
+      <c r="K101" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="P99" s="4" t="s">
+      <c r="L101" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="Q99" s="4" t="s">
+      <c r="M101" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="R99" s="4" t="s">
+      <c r="N101" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="S99" s="4" t="s">
+      <c r="O101" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="T99" s="4" t="s">
+      <c r="P101" s="4" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="Q101" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="B100" s="4" t="s">
+      <c r="R101" s="4" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+      <c r="S101" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B101" s="4" t="s">
+      <c r="T101" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
+    <row r="102" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>250</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-    </row>
-    <row r="103" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="103" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+    <row r="104" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="B105" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="D106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="F106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="H106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="J106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="L106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="M106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="N106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="P106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="R106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="S106" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="T106" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="107" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>260</v>
       </c>
@@ -5389,86 +5355,101 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="H108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="K108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="L108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="M108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="N108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="O108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="P108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="R108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="S108" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="T108" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="1" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B112" s="4" t="s">
+      <c r="B112" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AX112" s="3"/>
-      <c r="AY112" s="3"/>
-      <c r="AZ112" s="3"/>
-      <c r="BA112" s="3"/>
-      <c r="BB112" s="3"/>
-      <c r="BC112" s="3"/>
-      <c r="BD112" s="3"/>
-      <c r="BE112" s="3"/>
-      <c r="BF112" s="3"/>
-      <c r="BG112" s="3"/>
-      <c r="BH112" s="3"/>
-      <c r="BI112" s="3"/>
-      <c r="BJ112" s="3"/>
-      <c r="BK112" s="3"/>
-      <c r="BL112" s="3"/>
-      <c r="BM112" s="3"/>
-      <c r="BN112" s="3"/>
-      <c r="BO112" s="3"/>
-      <c r="BP112" s="3"/>
-      <c r="BQ112" s="3"/>
-      <c r="BR112" s="3"/>
-      <c r="BS112" s="3"/>
-      <c r="BT112" s="3"/>
-      <c r="BU112" s="3"/>
-      <c r="BV112" s="3"/>
-      <c r="BW112" s="3"/>
-      <c r="BX112" s="3"/>
-      <c r="BY112" s="3"/>
-      <c r="BZ112" s="3"/>
-      <c r="CA112" s="3"/>
-      <c r="CB112" s="3"/>
-      <c r="CC112" s="3"/>
-      <c r="CD112" s="3"/>
-      <c r="CE112" s="3"/>
-      <c r="CF112" s="3"/>
-      <c r="CG112" s="3"/>
-      <c r="CH112" s="3"/>
-      <c r="CI112" s="3"/>
-      <c r="CJ112" s="3"/>
-    </row>
-    <row r="113" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="113" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>272</v>
       </c>
@@ -5476,7 +5457,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
@@ -5523,142 +5504,197 @@
       <c r="CI114" s="3"/>
       <c r="CJ114" s="3"/>
     </row>
-    <row r="115" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AX115" s="3"/>
-      <c r="AY115" s="3"/>
-      <c r="AZ115" s="3"/>
-      <c r="BA115" s="3"/>
-      <c r="BB115" s="3"/>
-      <c r="BC115" s="3"/>
-      <c r="BD115" s="3"/>
-      <c r="BE115" s="3"/>
-      <c r="BF115" s="3"/>
-      <c r="BG115" s="3"/>
-      <c r="BH115" s="3"/>
-      <c r="BI115" s="3"/>
-      <c r="BJ115" s="3"/>
-      <c r="BK115" s="3"/>
-      <c r="BL115" s="3"/>
-      <c r="BM115" s="3"/>
-      <c r="BN115" s="3"/>
-      <c r="BO115" s="3"/>
-      <c r="BP115" s="3"/>
-      <c r="BQ115" s="3"/>
-      <c r="BR115" s="3"/>
-      <c r="BS115" s="3"/>
-      <c r="BT115" s="3"/>
-      <c r="BU115" s="3"/>
-      <c r="BV115" s="3"/>
-      <c r="BW115" s="3"/>
-      <c r="BX115" s="3"/>
-      <c r="BY115" s="3"/>
-      <c r="BZ115" s="3"/>
-      <c r="CA115" s="3"/>
-      <c r="CB115" s="3"/>
-      <c r="CC115" s="3"/>
-      <c r="CD115" s="3"/>
-      <c r="CE115" s="3"/>
-      <c r="CF115" s="3"/>
-      <c r="CG115" s="3"/>
-      <c r="CH115" s="3"/>
-      <c r="CI115" s="3"/>
-      <c r="CJ115" s="3"/>
-    </row>
-    <row r="116" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B116" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="AX116" s="3"/>
+      <c r="AY116" s="3"/>
+      <c r="AZ116" s="3"/>
+      <c r="BA116" s="3"/>
+      <c r="BB116" s="3"/>
+      <c r="BC116" s="3"/>
+      <c r="BD116" s="3"/>
+      <c r="BE116" s="3"/>
+      <c r="BF116" s="3"/>
+      <c r="BG116" s="3"/>
+      <c r="BH116" s="3"/>
+      <c r="BI116" s="3"/>
+      <c r="BJ116" s="3"/>
+      <c r="BK116" s="3"/>
+      <c r="BL116" s="3"/>
+      <c r="BM116" s="3"/>
+      <c r="BN116" s="3"/>
+      <c r="BO116" s="3"/>
+      <c r="BP116" s="3"/>
+      <c r="BQ116" s="3"/>
+      <c r="BR116" s="3"/>
+      <c r="BS116" s="3"/>
+      <c r="BT116" s="3"/>
+      <c r="BU116" s="3"/>
+      <c r="BV116" s="3"/>
+      <c r="BW116" s="3"/>
+      <c r="BX116" s="3"/>
+      <c r="BY116" s="3"/>
+      <c r="BZ116" s="3"/>
+      <c r="CA116" s="3"/>
+      <c r="CB116" s="3"/>
+      <c r="CC116" s="3"/>
+      <c r="CD116" s="3"/>
+      <c r="CE116" s="3"/>
+      <c r="CF116" s="3"/>
+      <c r="CG116" s="3"/>
+      <c r="CH116" s="3"/>
+      <c r="CI116" s="3"/>
+      <c r="CJ116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="AX117" s="3"/>
+      <c r="AY117" s="3"/>
+      <c r="AZ117" s="3"/>
+      <c r="BA117" s="3"/>
+      <c r="BB117" s="3"/>
+      <c r="BC117" s="3"/>
+      <c r="BD117" s="3"/>
+      <c r="BE117" s="3"/>
+      <c r="BF117" s="3"/>
+      <c r="BG117" s="3"/>
+      <c r="BH117" s="3"/>
+      <c r="BI117" s="3"/>
+      <c r="BJ117" s="3"/>
+      <c r="BK117" s="3"/>
+      <c r="BL117" s="3"/>
+      <c r="BM117" s="3"/>
+      <c r="BN117" s="3"/>
+      <c r="BO117" s="3"/>
+      <c r="BP117" s="3"/>
+      <c r="BQ117" s="3"/>
+      <c r="BR117" s="3"/>
+      <c r="BS117" s="3"/>
+      <c r="BT117" s="3"/>
+      <c r="BU117" s="3"/>
+      <c r="BV117" s="3"/>
+      <c r="BW117" s="3"/>
+      <c r="BX117" s="3"/>
+      <c r="BY117" s="3"/>
+      <c r="BZ117" s="3"/>
+      <c r="CA117" s="3"/>
+      <c r="CB117" s="3"/>
+      <c r="CC117" s="3"/>
+      <c r="CD117" s="3"/>
+      <c r="CE117" s="3"/>
+      <c r="CF117" s="3"/>
+      <c r="CG117" s="3"/>
+      <c r="CH117" s="3"/>
+      <c r="CI117" s="3"/>
+      <c r="CJ117" s="3"/>
+    </row>
+    <row r="118" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C116" s="1"/>
-      <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="1"/>
-      <c r="H116" s="1"/>
-      <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-      <c r="K116" s="1"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
-      <c r="N116" s="1"/>
-      <c r="O116" s="1"/>
-      <c r="P116" s="1"/>
-      <c r="Q116" s="1"/>
-      <c r="R116" s="1"/>
-      <c r="S116" s="1"/>
-      <c r="T116" s="1"/>
-      <c r="U116" s="1"/>
-      <c r="V116" s="1"/>
-      <c r="W116" s="1"/>
-      <c r="X116" s="1"/>
-      <c r="Y116" s="1"/>
-      <c r="Z116" s="1"/>
-      <c r="AA116" s="1"/>
-      <c r="AB116" s="1"/>
-      <c r="AC116" s="1"/>
-      <c r="AD116" s="1"/>
-      <c r="AE116" s="1"/>
-      <c r="AF116" s="1"/>
-      <c r="AG116" s="1"/>
-      <c r="AH116" s="1"/>
-      <c r="AI116" s="1"/>
-      <c r="AJ116" s="1"/>
-      <c r="AK116" s="1"/>
-      <c r="AL116" s="1"/>
-      <c r="AM116" s="1"/>
-      <c r="AN116" s="1"/>
-      <c r="AO116" s="1"/>
-      <c r="AP116" s="1"/>
-      <c r="AQ116" s="1"/>
-      <c r="AR116" s="1"/>
-      <c r="AS116" s="1"/>
-      <c r="AT116" s="1"/>
-      <c r="AU116" s="1"/>
-      <c r="AV116" s="1"/>
-      <c r="AW116" s="1"/>
-    </row>
-    <row r="117" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B118" s="8" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1"/>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1"/>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="1"/>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="1"/>
+      <c r="Z118" s="1"/>
+      <c r="AA118" s="1"/>
+      <c r="AB118" s="1"/>
+      <c r="AC118" s="1"/>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="1"/>
+      <c r="AF118" s="1"/>
+      <c r="AG118" s="1"/>
+      <c r="AH118" s="1"/>
+      <c r="AI118" s="1"/>
+      <c r="AJ118" s="1"/>
+      <c r="AK118" s="1"/>
+      <c r="AL118" s="1"/>
+      <c r="AM118" s="1"/>
+      <c r="AN118" s="1"/>
+      <c r="AO118" s="1"/>
+      <c r="AP118" s="1"/>
+      <c r="AQ118" s="1"/>
+      <c r="AR118" s="1"/>
+      <c r="AS118" s="1"/>
+      <c r="AT118" s="1"/>
+      <c r="AU118" s="1"/>
+      <c r="AV118" s="1"/>
+      <c r="AW118" s="1"/>
+    </row>
+    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="4" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B120" s="4" t="s">
+      <c r="B120" s="8" t="s">
         <v>286</v>
       </c>
     </row>
+    <row r="121" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>290</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T119"/>
+  <autoFilter ref="A2:T121"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$121</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$122</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="293">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -140,6 +140,14 @@
   </si>
   <si>
     <t xml:space="preserve">夢人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">産め{よ}！
+さあ、産め！
+産む{のだ}！</t>
   </si>
   <si>
     <t xml:space="preserve">barrel</t>
@@ -1712,9 +1720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2085480</xdr:colOff>
+      <xdr:colOff>2084760</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1724,7 +1732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50986080" cy="129600"/>
+          <a:ext cx="50985360" cy="128880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1757,9 +1765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>321840</xdr:rowOff>
+      <xdr:colOff>522360</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>321120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1769,7 +1777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55194120" cy="34971840"/>
+          <a:ext cx="55193400" cy="35387640"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1904,14 +1912,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ122"/>
+  <dimension ref="A1:CJ123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B85" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A85" activeCellId="0" sqref="A85"/>
-      <selection pane="bottomRight" activeCell="D87" activeCellId="0" sqref="D87"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2147,7 +2155,7 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2183,7 +2191,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2219,7 +2227,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2255,7 +2263,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2291,7 +2299,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2327,7 +2335,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2363,8 +2371,8 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
+    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2399,14 +2407,13 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="4"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
@@ -2436,13 +2443,14 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="C12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2473,13 +2481,12 @@
       <c r="AV12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2517,7 +2524,6 @@
         <v>60</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2547,7 +2553,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>61</v>
       </c>
@@ -2585,7 +2591,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2623,7 +2629,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2631,6 +2637,7 @@
         <v>66</v>
       </c>
       <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2660,7 +2667,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2697,13 +2704,14 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>70</v>
       </c>
+      <c r="C19" s="4"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2733,7 +2741,7 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2769,15 +2777,13 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2807,13 +2813,15 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2843,11 +2851,11 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="4" t="s">
         <v>78</v>
       </c>
       <c r="U23" s="3"/>
@@ -2879,14 +2887,13 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="4"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2916,8 +2923,8 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="25" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
         <v>81</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -2953,14 +2960,14 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="C26" s="4"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -2990,14 +2997,14 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3027,14 +3034,14 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3064,13 +3071,14 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="E29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3100,7 +3108,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -3136,7 +3144,7 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -3172,7 +3180,7 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3208,7 +3216,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3244,15 +3252,13 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
       <c r="W34" s="3"/>
@@ -3282,14 +3288,15 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -3319,13 +3326,14 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>104</v>
       </c>
+      <c r="F36" s="4"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3427,11 +3435,11 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="4" t="s">
         <v>110</v>
       </c>
       <c r="U39" s="3"/>
@@ -3463,11 +3471,11 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="1" t="s">
         <v>112</v>
       </c>
       <c r="U40" s="3"/>
@@ -3499,7 +3507,7 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
@@ -3535,7 +3543,7 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -3571,7 +3579,7 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -3608,30 +3616,12 @@
       <c r="AV43" s="3"/>
     </row>
     <row r="44" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
       <c r="U44" s="3"/>
       <c r="V44" s="3"/>
       <c r="W44" s="3"/>
@@ -3661,11 +3651,11 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>122</v>
       </c>
       <c r="C45" s="5"/>
@@ -3715,11 +3705,11 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="5" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="5"/>
@@ -3769,13 +3759,31 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+    <row r="47" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="4" t="s">
         <v>126</v>
       </c>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="5"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -3913,11 +3921,11 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="1" t="s">
         <v>134</v>
       </c>
       <c r="U51" s="3"/>
@@ -3949,7 +3957,7 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
@@ -3985,11 +3993,11 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="4" t="s">
         <v>138</v>
       </c>
       <c r="U53" s="3"/>
@@ -4021,11 +4029,11 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>140</v>
       </c>
       <c r="U54" s="3"/>
@@ -4057,11 +4065,11 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>142</v>
       </c>
       <c r="U55" s="3"/>
@@ -4165,11 +4173,11 @@
       <c r="AU57" s="3"/>
       <c r="AV57" s="3"/>
     </row>
-    <row r="58" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="1" t="s">
         <v>148</v>
       </c>
       <c r="U58" s="3"/>
@@ -4201,9 +4209,12 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>149</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>150</v>
       </c>
       <c r="U59" s="3"/>
       <c r="V59" s="3"/>
@@ -4234,11 +4245,8 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B60" s="4" t="s">
         <v>151</v>
       </c>
       <c r="U60" s="3"/>
@@ -4270,11 +4278,11 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>153</v>
       </c>
       <c r="U61" s="3"/>
@@ -4306,12 +4314,12 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="4" t="s">
-        <v>134</v>
+      <c r="B62" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
@@ -4342,12 +4350,12 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B63" s="1" t="s">
         <v>156</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>136</v>
       </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -4378,11 +4386,11 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="1" t="s">
         <v>158</v>
       </c>
       <c r="U64" s="3"/>
@@ -4414,7 +4422,7 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>159</v>
       </c>
@@ -4450,7 +4458,7 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -4486,7 +4494,7 @@
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -4522,7 +4530,7 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
@@ -4558,11 +4566,11 @@
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="B69" s="4" t="s">
         <v>168</v>
       </c>
       <c r="U69" s="3"/>
@@ -4594,11 +4602,11 @@
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="1" t="s">
         <v>170</v>
       </c>
       <c r="U70" s="3"/>
@@ -4630,7 +4638,7 @@
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
@@ -4666,11 +4674,11 @@
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>174</v>
       </c>
       <c r="U72" s="3"/>
@@ -4774,7 +4782,7 @@
       <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
@@ -4810,7 +4818,7 @@
       <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -4846,11 +4854,11 @@
       <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="1" t="s">
         <v>184</v>
       </c>
       <c r="U77" s="3"/>
@@ -4882,11 +4890,11 @@
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>186</v>
       </c>
       <c r="U78" s="3"/>
@@ -4918,11 +4926,11 @@
       <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>188</v>
       </c>
       <c r="U79" s="3"/>
@@ -4954,13 +4962,41 @@
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>190</v>
       </c>
+      <c r="U80" s="3"/>
+      <c r="V80" s="3"/>
+      <c r="W80" s="3"/>
+      <c r="X80" s="3"/>
+      <c r="Y80" s="3"/>
+      <c r="Z80" s="3"/>
+      <c r="AA80" s="3"/>
+      <c r="AB80" s="3"/>
+      <c r="AC80" s="3"/>
+      <c r="AD80" s="3"/>
+      <c r="AE80" s="3"/>
+      <c r="AF80" s="3"/>
+      <c r="AG80" s="3"/>
+      <c r="AH80" s="3"/>
+      <c r="AI80" s="3"/>
+      <c r="AJ80" s="3"/>
+      <c r="AK80" s="3"/>
+      <c r="AL80" s="3"/>
+      <c r="AM80" s="3"/>
+      <c r="AN80" s="3"/>
+      <c r="AO80" s="3"/>
+      <c r="AP80" s="3"/>
+      <c r="AQ80" s="3"/>
+      <c r="AR80" s="3"/>
+      <c r="AS80" s="3"/>
+      <c r="AT80" s="3"/>
+      <c r="AU80" s="3"/>
+      <c r="AV80" s="3"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
@@ -4974,16 +5010,16 @@
       <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="B83" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>196</v>
       </c>
@@ -4991,7 +5027,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -4999,39 +5035,39 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="5" t="s">
+    <row r="86" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="5"/>
-      <c r="M86" s="5"/>
-      <c r="N86" s="5"/>
-      <c r="O86" s="5"/>
-      <c r="P86" s="5"/>
-      <c r="Q86" s="5"/>
-      <c r="R86" s="5"/>
-      <c r="S86" s="5"/>
-      <c r="T86" s="5"/>
-    </row>
-    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="1" t="s">
+    </row>
+    <row r="87" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="5" t="s">
         <v>202</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>203</v>
       </c>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5"/>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="5"/>
+      <c r="O87" s="5"/>
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5"/>
+      <c r="R87" s="5"/>
+      <c r="S87" s="5"/>
+      <c r="T87" s="5"/>
     </row>
     <row r="88" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
@@ -5041,7 +5077,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
         <v>206</v>
       </c>
@@ -5049,7 +5085,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>208</v>
       </c>
@@ -5057,7 +5093,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>210</v>
       </c>
@@ -5065,7 +5101,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
@@ -5073,93 +5109,93 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
+    <row r="93" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-    </row>
-    <row r="94" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+    </row>
+    <row r="94" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="5" t="s">
         <v>216</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
-      <c r="F94" s="4"/>
-      <c r="G94" s="4"/>
-      <c r="H94" s="4"/>
-      <c r="I94" s="4"/>
-      <c r="J94" s="4"/>
-      <c r="K94" s="4"/>
-      <c r="L94" s="4"/>
-      <c r="M94" s="4"/>
-      <c r="N94" s="4"/>
-      <c r="O94" s="4"/>
-      <c r="P94" s="4"/>
-      <c r="Q94" s="4"/>
-      <c r="R94" s="4"/>
-      <c r="S94" s="4"/>
-      <c r="T94" s="4"/>
-    </row>
-    <row r="95" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="5"/>
+      <c r="O94" s="5"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="T94" s="5"/>
+    </row>
+    <row r="95" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="6" t="s">
         <v>218</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-    </row>
-    <row r="96" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="1" t="s">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="4"/>
+      <c r="Q95" s="4"/>
+      <c r="R95" s="4"/>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+    </row>
+    <row r="96" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
         <v>222</v>
       </c>
@@ -5167,7 +5203,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -5175,31 +5211,13 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
+    <row r="99" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
-      <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
-      <c r="J99" s="5"/>
-      <c r="K99" s="5"/>
-      <c r="L99" s="5"/>
-      <c r="M99" s="5"/>
-      <c r="N99" s="5"/>
-      <c r="O99" s="5"/>
-      <c r="P99" s="5"/>
-      <c r="Q99" s="5"/>
-      <c r="R99" s="5"/>
-      <c r="S99" s="5"/>
-      <c r="T99" s="5"/>
     </row>
     <row r="100" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="5" t="s">
@@ -5227,77 +5245,95 @@
       <c r="S100" s="5"/>
       <c r="T100" s="5"/>
     </row>
-    <row r="101" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="1" t="s">
+    <row r="101" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="5" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+    </row>
+    <row r="102" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D101" s="4" t="s">
+      <c r="B102" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="D102" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="G101" s="4" t="s">
+      <c r="E102" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="H101" s="4" t="s">
+      <c r="F102" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="I101" s="4" t="s">
+      <c r="G102" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="J101" s="4" t="s">
+      <c r="H102" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="K101" s="4" t="s">
+      <c r="I102" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="L101" s="4" t="s">
+      <c r="J102" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="M101" s="4" t="s">
+      <c r="K102" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="N101" s="4" t="s">
+      <c r="L102" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="O101" s="4" t="s">
+      <c r="M102" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="P101" s="4" t="s">
+      <c r="N102" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="Q101" s="4" t="s">
+      <c r="O102" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="R101" s="4" t="s">
+      <c r="P102" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="S101" s="4" t="s">
+      <c r="Q102" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="T101" s="4" t="s">
+      <c r="R102" s="4" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+      <c r="S102" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="B102" s="4" t="s">
+      <c r="T102" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
         <v>252</v>
       </c>
@@ -5305,41 +5341,41 @@
         <v>253</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="5" t="s">
+    <row r="104" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>254</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C104" s="5"/>
-      <c r="D104" s="5"/>
-      <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
-      <c r="J104" s="5"/>
-      <c r="K104" s="5"/>
-      <c r="L104" s="5"/>
-      <c r="M104" s="5"/>
-      <c r="N104" s="5"/>
-      <c r="O104" s="5"/>
-      <c r="P104" s="5"/>
-      <c r="Q104" s="5"/>
-      <c r="R104" s="5"/>
-      <c r="S104" s="5"/>
-      <c r="T104" s="5"/>
-    </row>
-    <row r="105" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+    </row>
+    <row r="105" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B105" s="7" t="s">
+      <c r="B105" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
         <v>258</v>
       </c>
@@ -5347,85 +5383,85 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="B107" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="F108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="G108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="I108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="K108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="L108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="M108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="N108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="O108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="P108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="Q108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="R108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="T108" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="1" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="I109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="K109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="M109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="N109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="O109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="P109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="S109" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="T109" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
@@ -5433,11 +5469,11 @@
         <v>267</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5449,68 +5485,68 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="1" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="AX114" s="3"/>
-      <c r="AY114" s="3"/>
-      <c r="AZ114" s="3"/>
-      <c r="BA114" s="3"/>
-      <c r="BB114" s="3"/>
-      <c r="BC114" s="3"/>
-      <c r="BD114" s="3"/>
-      <c r="BE114" s="3"/>
-      <c r="BF114" s="3"/>
-      <c r="BG114" s="3"/>
-      <c r="BH114" s="3"/>
-      <c r="BI114" s="3"/>
-      <c r="BJ114" s="3"/>
-      <c r="BK114" s="3"/>
-      <c r="BL114" s="3"/>
-      <c r="BM114" s="3"/>
-      <c r="BN114" s="3"/>
-      <c r="BO114" s="3"/>
-      <c r="BP114" s="3"/>
-      <c r="BQ114" s="3"/>
-      <c r="BR114" s="3"/>
-      <c r="BS114" s="3"/>
-      <c r="BT114" s="3"/>
-      <c r="BU114" s="3"/>
-      <c r="BV114" s="3"/>
-      <c r="BW114" s="3"/>
-      <c r="BX114" s="3"/>
-      <c r="BY114" s="3"/>
-      <c r="BZ114" s="3"/>
-      <c r="CA114" s="3"/>
-      <c r="CB114" s="3"/>
-      <c r="CC114" s="3"/>
-      <c r="CD114" s="3"/>
-      <c r="CE114" s="3"/>
-      <c r="CF114" s="3"/>
-      <c r="CG114" s="3"/>
-      <c r="CH114" s="3"/>
-      <c r="CI114" s="3"/>
-      <c r="CJ114" s="3"/>
-    </row>
-    <row r="115" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>277</v>
       </c>
+      <c r="AX115" s="3"/>
+      <c r="AY115" s="3"/>
+      <c r="AZ115" s="3"/>
+      <c r="BA115" s="3"/>
+      <c r="BB115" s="3"/>
+      <c r="BC115" s="3"/>
+      <c r="BD115" s="3"/>
+      <c r="BE115" s="3"/>
+      <c r="BF115" s="3"/>
+      <c r="BG115" s="3"/>
+      <c r="BH115" s="3"/>
+      <c r="BI115" s="3"/>
+      <c r="BJ115" s="3"/>
+      <c r="BK115" s="3"/>
+      <c r="BL115" s="3"/>
+      <c r="BM115" s="3"/>
+      <c r="BN115" s="3"/>
+      <c r="BO115" s="3"/>
+      <c r="BP115" s="3"/>
+      <c r="BQ115" s="3"/>
+      <c r="BR115" s="3"/>
+      <c r="BS115" s="3"/>
+      <c r="BT115" s="3"/>
+      <c r="BU115" s="3"/>
+      <c r="BV115" s="3"/>
+      <c r="BW115" s="3"/>
+      <c r="BX115" s="3"/>
+      <c r="BY115" s="3"/>
+      <c r="BZ115" s="3"/>
+      <c r="CA115" s="3"/>
+      <c r="CB115" s="3"/>
+      <c r="CC115" s="3"/>
+      <c r="CD115" s="3"/>
+      <c r="CE115" s="3"/>
+      <c r="CF115" s="3"/>
+      <c r="CG115" s="3"/>
+      <c r="CH115" s="3"/>
+      <c r="CI115" s="3"/>
+      <c r="CJ115" s="3"/>
     </row>
     <row r="116" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
@@ -5519,47 +5555,8 @@
       <c r="B116" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AX116" s="3"/>
-      <c r="AY116" s="3"/>
-      <c r="AZ116" s="3"/>
-      <c r="BA116" s="3"/>
-      <c r="BB116" s="3"/>
-      <c r="BC116" s="3"/>
-      <c r="BD116" s="3"/>
-      <c r="BE116" s="3"/>
-      <c r="BF116" s="3"/>
-      <c r="BG116" s="3"/>
-      <c r="BH116" s="3"/>
-      <c r="BI116" s="3"/>
-      <c r="BJ116" s="3"/>
-      <c r="BK116" s="3"/>
-      <c r="BL116" s="3"/>
-      <c r="BM116" s="3"/>
-      <c r="BN116" s="3"/>
-      <c r="BO116" s="3"/>
-      <c r="BP116" s="3"/>
-      <c r="BQ116" s="3"/>
-      <c r="BR116" s="3"/>
-      <c r="BS116" s="3"/>
-      <c r="BT116" s="3"/>
-      <c r="BU116" s="3"/>
-      <c r="BV116" s="3"/>
-      <c r="BW116" s="3"/>
-      <c r="BX116" s="3"/>
-      <c r="BY116" s="3"/>
-      <c r="BZ116" s="3"/>
-      <c r="CA116" s="3"/>
-      <c r="CB116" s="3"/>
-      <c r="CC116" s="3"/>
-      <c r="CD116" s="3"/>
-      <c r="CE116" s="3"/>
-      <c r="CF116" s="3"/>
-      <c r="CG116" s="3"/>
-      <c r="CH116" s="3"/>
-      <c r="CI116" s="3"/>
-      <c r="CJ116" s="3"/>
-    </row>
-    <row r="117" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>280</v>
       </c>
@@ -5606,78 +5603,117 @@
       <c r="CI117" s="3"/>
       <c r="CJ117" s="3"/>
     </row>
-    <row r="118" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>282</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" s="1"/>
-      <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="1"/>
-      <c r="H118" s="1"/>
-      <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-      <c r="K118" s="1"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1"/>
-      <c r="N118" s="1"/>
-      <c r="O118" s="1"/>
-      <c r="P118" s="1"/>
-      <c r="Q118" s="1"/>
-      <c r="R118" s="1"/>
-      <c r="S118" s="1"/>
-      <c r="T118" s="1"/>
-      <c r="U118" s="1"/>
-      <c r="V118" s="1"/>
-      <c r="W118" s="1"/>
-      <c r="X118" s="1"/>
-      <c r="Y118" s="1"/>
-      <c r="Z118" s="1"/>
-      <c r="AA118" s="1"/>
-      <c r="AB118" s="1"/>
-      <c r="AC118" s="1"/>
-      <c r="AD118" s="1"/>
-      <c r="AE118" s="1"/>
-      <c r="AF118" s="1"/>
-      <c r="AG118" s="1"/>
-      <c r="AH118" s="1"/>
-      <c r="AI118" s="1"/>
-      <c r="AJ118" s="1"/>
-      <c r="AK118" s="1"/>
-      <c r="AL118" s="1"/>
-      <c r="AM118" s="1"/>
-      <c r="AN118" s="1"/>
-      <c r="AO118" s="1"/>
-      <c r="AP118" s="1"/>
-      <c r="AQ118" s="1"/>
-      <c r="AR118" s="1"/>
-      <c r="AS118" s="1"/>
-      <c r="AT118" s="1"/>
-      <c r="AU118" s="1"/>
-      <c r="AV118" s="1"/>
-      <c r="AW118" s="1"/>
-    </row>
-    <row r="119" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>283</v>
+      </c>
+      <c r="AX118" s="3"/>
+      <c r="AY118" s="3"/>
+      <c r="AZ118" s="3"/>
+      <c r="BA118" s="3"/>
+      <c r="BB118" s="3"/>
+      <c r="BC118" s="3"/>
+      <c r="BD118" s="3"/>
+      <c r="BE118" s="3"/>
+      <c r="BF118" s="3"/>
+      <c r="BG118" s="3"/>
+      <c r="BH118" s="3"/>
+      <c r="BI118" s="3"/>
+      <c r="BJ118" s="3"/>
+      <c r="BK118" s="3"/>
+      <c r="BL118" s="3"/>
+      <c r="BM118" s="3"/>
+      <c r="BN118" s="3"/>
+      <c r="BO118" s="3"/>
+      <c r="BP118" s="3"/>
+      <c r="BQ118" s="3"/>
+      <c r="BR118" s="3"/>
+      <c r="BS118" s="3"/>
+      <c r="BT118" s="3"/>
+      <c r="BU118" s="3"/>
+      <c r="BV118" s="3"/>
+      <c r="BW118" s="3"/>
+      <c r="BX118" s="3"/>
+      <c r="BY118" s="3"/>
+      <c r="BZ118" s="3"/>
+      <c r="CA118" s="3"/>
+      <c r="CB118" s="3"/>
+      <c r="CC118" s="3"/>
+      <c r="CD118" s="3"/>
+      <c r="CE118" s="3"/>
+      <c r="CF118" s="3"/>
+      <c r="CG118" s="3"/>
+      <c r="CH118" s="3"/>
+      <c r="CI118" s="3"/>
+      <c r="CJ118" s="3"/>
+    </row>
+    <row r="119" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>136</v>
+      </c>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1"/>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="1"/>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="1"/>
+      <c r="Z119" s="1"/>
+      <c r="AA119" s="1"/>
+      <c r="AB119" s="1"/>
+      <c r="AC119" s="1"/>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="1"/>
+      <c r="AF119" s="1"/>
+      <c r="AG119" s="1"/>
+      <c r="AH119" s="1"/>
+      <c r="AI119" s="1"/>
+      <c r="AJ119" s="1"/>
+      <c r="AK119" s="1"/>
+      <c r="AL119" s="1"/>
+      <c r="AM119" s="1"/>
+      <c r="AN119" s="1"/>
+      <c r="AO119" s="1"/>
+      <c r="AP119" s="1"/>
+      <c r="AQ119" s="1"/>
+      <c r="AR119" s="1"/>
+      <c r="AS119" s="1"/>
+      <c r="AT119" s="1"/>
+      <c r="AU119" s="1"/>
+      <c r="AV119" s="1"/>
+      <c r="AW119" s="1"/>
+    </row>
+    <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="4" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>287</v>
       </c>
@@ -5685,16 +5721,24 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B122" s="4" t="s">
+      <c r="B122" s="8" t="s">
         <v>290</v>
       </c>
     </row>
+    <row r="123" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T121"/>
+  <autoFilter ref="A2:T122"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -278,12 +278,12 @@
     <t xml:space="preserve">baby</t>
   </si>
   <si>
-    <t xml:space="preserve">ばぶ～♪
-バブバブ！
-オギャ～！
-バブ。
-ばぶ～
-ママァ</t>
+    <t xml:space="preserve">あうあう。
+ばぶー！
+あうあう！
+オギャァ！
+ばぶばぶ。
+ママァ～</t>
   </si>
   <si>
     <t xml:space="preserve">ride2</t>
@@ -1720,9 +1720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2084760</xdr:colOff>
+      <xdr:colOff>2084400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1732,7 +1732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50985360" cy="128880"/>
+          <a:ext cx="50985000" cy="128520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,9 +1765,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>522360</xdr:colOff>
+      <xdr:colOff>522000</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>321120</xdr:rowOff>
+      <xdr:rowOff>320760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1777,7 +1777,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55193400" cy="35387640"/>
+          <a:ext cx="55193040" cy="35387280"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1915,11 +1915,11 @@
   <dimension ref="A1:CJ123"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$122</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$123</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="295">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -140,6 +140,16 @@
   </si>
   <si>
     <t xml:space="preserve">夢人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sniff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">すーっ！
+すんすん！
+ああー！
+ふわぁ！
+んんっ！</t>
   </si>
   <si>
     <t xml:space="preserve">egg</t>
@@ -1720,9 +1730,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2084400</xdr:colOff>
+      <xdr:colOff>2084040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1732,7 +1742,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50985000" cy="128520"/>
+          <a:ext cx="50984640" cy="128160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1765,9 +1775,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>522000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>320760</xdr:rowOff>
+      <xdr:colOff>521640</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>320400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1777,7 +1787,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55193040" cy="35387280"/>
+          <a:ext cx="55192680" cy="36069120"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1912,14 +1922,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ123"/>
+  <dimension ref="A1:CJ1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="B14" activeCellId="0" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2155,7 +2165,7 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2191,7 +2201,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2227,7 +2237,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2263,7 +2273,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2299,7 +2309,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2335,7 +2345,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2371,7 +2381,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2407,8 +2417,8 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
+    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2443,14 +2453,13 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
       <c r="W12" s="3"/>
@@ -2480,13 +2489,14 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="C13" s="4"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2517,13 +2527,12 @@
       <c r="AV13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2561,7 +2570,6 @@
         <v>62</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2591,7 +2599,7 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -2629,7 +2637,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2667,7 +2675,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2675,6 +2683,7 @@
         <v>68</v>
       </c>
       <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2704,7 +2713,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2741,13 +2750,14 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>72</v>
       </c>
+      <c r="C20" s="4"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2777,7 +2787,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2813,15 +2823,13 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2851,13 +2859,15 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2887,11 +2897,11 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
       <c r="U24" s="3"/>
@@ -2923,14 +2933,13 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4" t="s">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="4"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
       <c r="W25" s="3"/>
@@ -2960,8 +2969,8 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="26" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="4" t="s">
         <v>83</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -2997,14 +3006,14 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="4"/>
+      <c r="C27" s="4"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3034,14 +3043,14 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3071,14 +3080,14 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3108,13 +3117,14 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
+      <c r="E30" s="4"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -3144,7 +3154,7 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -3180,7 +3190,7 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3216,7 +3226,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3252,7 +3262,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -3288,15 +3298,13 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
       <c r="W35" s="3"/>
@@ -3326,14 +3334,15 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3363,13 +3372,14 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
+      <c r="F37" s="4"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -3471,11 +3481,11 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="4" t="s">
         <v>112</v>
       </c>
       <c r="U40" s="3"/>
@@ -3507,11 +3517,11 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="1" t="s">
         <v>114</v>
       </c>
       <c r="U41" s="3"/>
@@ -3543,7 +3553,7 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
@@ -3579,7 +3589,7 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -3615,7 +3625,7 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -3652,30 +3662,12 @@
       <c r="AV44" s="3"/>
     </row>
     <row r="45" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
       <c r="U45" s="3"/>
       <c r="V45" s="3"/>
       <c r="W45" s="3"/>
@@ -3705,11 +3697,11 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
       <c r="C46" s="5"/>
@@ -3759,11 +3751,11 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="5" t="s">
         <v>126</v>
       </c>
       <c r="C47" s="5"/>
@@ -3813,13 +3805,31 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
+    <row r="48" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="4" t="s">
         <v>128</v>
       </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -3957,11 +3967,11 @@
       <c r="AU51" s="3"/>
       <c r="AV51" s="3"/>
     </row>
-    <row r="52" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="1" t="s">
         <v>136</v>
       </c>
       <c r="U52" s="3"/>
@@ -3993,7 +4003,7 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
@@ -4029,11 +4039,11 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="4" t="s">
         <v>140</v>
       </c>
       <c r="U54" s="3"/>
@@ -4065,11 +4075,11 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="U55" s="3"/>
@@ -4101,11 +4111,11 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>144</v>
       </c>
       <c r="U56" s="3"/>
@@ -4209,11 +4219,11 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="1" t="s">
         <v>150</v>
       </c>
       <c r="U59" s="3"/>
@@ -4245,9 +4255,12 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>151</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="U60" s="3"/>
       <c r="V60" s="3"/>
@@ -4278,11 +4291,8 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B61" s="4" t="s">
         <v>153</v>
       </c>
       <c r="U61" s="3"/>
@@ -4314,11 +4324,11 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
       <c r="U62" s="3"/>
@@ -4350,12 +4360,12 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="4" t="s">
-        <v>136</v>
+      <c r="B63" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -4386,12 +4396,12 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>158</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>138</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -4422,11 +4432,11 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="1" t="s">
         <v>160</v>
       </c>
       <c r="U65" s="3"/>
@@ -4458,7 +4468,7 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
@@ -4494,7 +4504,7 @@
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -4530,7 +4540,7 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
@@ -4566,7 +4576,7 @@
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
@@ -4602,11 +4612,11 @@
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>170</v>
       </c>
       <c r="U70" s="3"/>
@@ -4638,11 +4648,11 @@
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="1" t="s">
         <v>172</v>
       </c>
       <c r="U71" s="3"/>
@@ -4674,7 +4684,7 @@
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
@@ -4710,11 +4720,11 @@
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="4" t="s">
         <v>176</v>
       </c>
       <c r="U73" s="3"/>
@@ -4818,7 +4828,7 @@
       <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
@@ -4854,7 +4864,7 @@
       <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -4890,11 +4900,11 @@
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="1" t="s">
         <v>186</v>
       </c>
       <c r="U78" s="3"/>
@@ -4926,11 +4936,11 @@
       <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="B79" s="4" t="s">
         <v>188</v>
       </c>
       <c r="U79" s="3"/>
@@ -4962,11 +4972,11 @@
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>190</v>
       </c>
       <c r="U80" s="3"/>
@@ -4998,13 +5008,41 @@
       <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="U81" s="3"/>
+      <c r="V81" s="3"/>
+      <c r="W81" s="3"/>
+      <c r="X81" s="3"/>
+      <c r="Y81" s="3"/>
+      <c r="Z81" s="3"/>
+      <c r="AA81" s="3"/>
+      <c r="AB81" s="3"/>
+      <c r="AC81" s="3"/>
+      <c r="AD81" s="3"/>
+      <c r="AE81" s="3"/>
+      <c r="AF81" s="3"/>
+      <c r="AG81" s="3"/>
+      <c r="AH81" s="3"/>
+      <c r="AI81" s="3"/>
+      <c r="AJ81" s="3"/>
+      <c r="AK81" s="3"/>
+      <c r="AL81" s="3"/>
+      <c r="AM81" s="3"/>
+      <c r="AN81" s="3"/>
+      <c r="AO81" s="3"/>
+      <c r="AP81" s="3"/>
+      <c r="AQ81" s="3"/>
+      <c r="AR81" s="3"/>
+      <c r="AS81" s="3"/>
+      <c r="AT81" s="3"/>
+      <c r="AU81" s="3"/>
+      <c r="AV81" s="3"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
@@ -5018,16 +5056,16 @@
       <c r="A83" s="1" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B84" s="4" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>198</v>
       </c>
@@ -5035,7 +5073,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
@@ -5043,39 +5081,39 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="5" t="s">
+    <row r="87" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
-      <c r="F87" s="5"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
-      <c r="J87" s="5"/>
-      <c r="K87" s="5"/>
-      <c r="L87" s="5"/>
-      <c r="M87" s="5"/>
-      <c r="N87" s="5"/>
-      <c r="O87" s="5"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="T87" s="5"/>
-    </row>
-    <row r="88" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="1" t="s">
+    </row>
+    <row r="88" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="5" t="s">
         <v>204</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>205</v>
       </c>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="5"/>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="5"/>
+      <c r="O88" s="5"/>
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5"/>
+      <c r="R88" s="5"/>
+      <c r="S88" s="5"/>
+      <c r="T88" s="5"/>
     </row>
     <row r="89" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
@@ -5085,7 +5123,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>208</v>
       </c>
@@ -5093,7 +5131,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>210</v>
       </c>
@@ -5101,7 +5139,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
@@ -5109,7 +5147,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>214</v>
       </c>
@@ -5117,93 +5155,93 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
+    <row r="94" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
-      <c r="J94" s="5"/>
-      <c r="K94" s="5"/>
-      <c r="L94" s="5"/>
-      <c r="M94" s="5"/>
-      <c r="N94" s="5"/>
-      <c r="O94" s="5"/>
-      <c r="P94" s="5"/>
-      <c r="Q94" s="5"/>
-      <c r="R94" s="5"/>
-      <c r="S94" s="5"/>
-      <c r="T94" s="5"/>
-    </row>
-    <row r="95" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
+    </row>
+    <row r="95" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="5" t="s">
         <v>218</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
-      <c r="E95" s="4"/>
-      <c r="F95" s="4"/>
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
-      <c r="I95" s="4"/>
-      <c r="J95" s="4"/>
-      <c r="K95" s="4"/>
-      <c r="L95" s="4"/>
-      <c r="M95" s="4"/>
-      <c r="N95" s="4"/>
-      <c r="O95" s="4"/>
-      <c r="P95" s="4"/>
-      <c r="Q95" s="4"/>
-      <c r="R95" s="4"/>
-      <c r="S95" s="4"/>
-      <c r="T95" s="4"/>
-    </row>
-    <row r="96" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="5"/>
+      <c r="O95" s="5"/>
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5"/>
+      <c r="R95" s="5"/>
+      <c r="S95" s="5"/>
+      <c r="T95" s="5"/>
+    </row>
+    <row r="96" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="6" t="s">
         <v>220</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-    </row>
-    <row r="97" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="1" t="s">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="4"/>
+      <c r="Q96" s="4"/>
+      <c r="R96" s="4"/>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+    </row>
+    <row r="97" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="5" t="s">
         <v>222</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="5"/>
+      <c r="O97" s="5"/>
+      <c r="P97" s="5"/>
+      <c r="Q97" s="5"/>
+      <c r="R97" s="5"/>
+      <c r="S97" s="5"/>
+      <c r="T97" s="5"/>
+    </row>
+    <row r="98" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
         <v>224</v>
       </c>
@@ -5211,7 +5249,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>226</v>
       </c>
@@ -5219,31 +5257,13 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5" t="s">
+    <row r="100" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
-      <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
-      <c r="J100" s="5"/>
-      <c r="K100" s="5"/>
-      <c r="L100" s="5"/>
-      <c r="M100" s="5"/>
-      <c r="N100" s="5"/>
-      <c r="O100" s="5"/>
-      <c r="P100" s="5"/>
-      <c r="Q100" s="5"/>
-      <c r="R100" s="5"/>
-      <c r="S100" s="5"/>
-      <c r="T100" s="5"/>
     </row>
     <row r="101" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="5" t="s">
@@ -5271,77 +5291,95 @@
       <c r="S101" s="5"/>
       <c r="T101" s="5"/>
     </row>
-    <row r="102" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="1" t="s">
+    <row r="102" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="5" t="s">
         <v>232</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="4" t="s">
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="5"/>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="5"/>
+      <c r="O102" s="5"/>
+      <c r="P102" s="5"/>
+      <c r="Q102" s="5"/>
+      <c r="R102" s="5"/>
+      <c r="S102" s="5"/>
+      <c r="T102" s="5"/>
+    </row>
+    <row r="103" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D102" s="4" t="s">
+      <c r="B103" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E102" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="D103" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="G102" s="4" t="s">
+      <c r="E103" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="F103" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="I102" s="4" t="s">
+      <c r="G103" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="J102" s="4" t="s">
+      <c r="H103" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="K102" s="4" t="s">
+      <c r="I103" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="L102" s="4" t="s">
+      <c r="J103" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="M102" s="4" t="s">
+      <c r="K103" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="N102" s="4" t="s">
+      <c r="L103" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="O102" s="4" t="s">
+      <c r="M103" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="P102" s="4" t="s">
+      <c r="N103" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="Q102" s="4" t="s">
+      <c r="O103" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="R102" s="4" t="s">
+      <c r="P103" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="S102" s="4" t="s">
+      <c r="Q103" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="T102" s="4" t="s">
+      <c r="R103" s="4" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+      <c r="S103" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="T103" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
         <v>254</v>
       </c>
@@ -5349,41 +5387,41 @@
         <v>255</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="5" t="s">
+    <row r="105" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="s">
         <v>256</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C105" s="5"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5"/>
-      <c r="K105" s="5"/>
-      <c r="L105" s="5"/>
-      <c r="M105" s="5"/>
-      <c r="N105" s="5"/>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-    </row>
-    <row r="106" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+    </row>
+    <row r="106" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B106" s="7" t="s">
+      <c r="B106" s="4" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C106" s="5"/>
+      <c r="D106" s="5"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5"/>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="5"/>
+      <c r="L106" s="5"/>
+      <c r="M106" s="5"/>
+      <c r="N106" s="5"/>
+      <c r="O106" s="5"/>
+      <c r="P106" s="5"/>
+      <c r="Q106" s="5"/>
+      <c r="R106" s="5"/>
+      <c r="S106" s="5"/>
+      <c r="T106" s="5"/>
+    </row>
+    <row r="107" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
         <v>260</v>
       </c>
@@ -5391,85 +5429,85 @@
         <v>261</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="J109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="L109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="M109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="O109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="P109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="R109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="T109" s="1" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="1" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="K110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="R110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="S110" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T110" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
@@ -5477,11 +5515,11 @@
         <v>269</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5493,68 +5531,68 @@
         <v>273</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B114" s="4" t="s">
+      <c r="B114" s="1" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="AX115" s="3"/>
-      <c r="AY115" s="3"/>
-      <c r="AZ115" s="3"/>
-      <c r="BA115" s="3"/>
-      <c r="BB115" s="3"/>
-      <c r="BC115" s="3"/>
-      <c r="BD115" s="3"/>
-      <c r="BE115" s="3"/>
-      <c r="BF115" s="3"/>
-      <c r="BG115" s="3"/>
-      <c r="BH115" s="3"/>
-      <c r="BI115" s="3"/>
-      <c r="BJ115" s="3"/>
-      <c r="BK115" s="3"/>
-      <c r="BL115" s="3"/>
-      <c r="BM115" s="3"/>
-      <c r="BN115" s="3"/>
-      <c r="BO115" s="3"/>
-      <c r="BP115" s="3"/>
-      <c r="BQ115" s="3"/>
-      <c r="BR115" s="3"/>
-      <c r="BS115" s="3"/>
-      <c r="BT115" s="3"/>
-      <c r="BU115" s="3"/>
-      <c r="BV115" s="3"/>
-      <c r="BW115" s="3"/>
-      <c r="BX115" s="3"/>
-      <c r="BY115" s="3"/>
-      <c r="BZ115" s="3"/>
-      <c r="CA115" s="3"/>
-      <c r="CB115" s="3"/>
-      <c r="CC115" s="3"/>
-      <c r="CD115" s="3"/>
-      <c r="CE115" s="3"/>
-      <c r="CF115" s="3"/>
-      <c r="CG115" s="3"/>
-      <c r="CH115" s="3"/>
-      <c r="CI115" s="3"/>
-      <c r="CJ115" s="3"/>
-    </row>
-    <row r="116" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="116" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>279</v>
       </c>
+      <c r="AX116" s="3"/>
+      <c r="AY116" s="3"/>
+      <c r="AZ116" s="3"/>
+      <c r="BA116" s="3"/>
+      <c r="BB116" s="3"/>
+      <c r="BC116" s="3"/>
+      <c r="BD116" s="3"/>
+      <c r="BE116" s="3"/>
+      <c r="BF116" s="3"/>
+      <c r="BG116" s="3"/>
+      <c r="BH116" s="3"/>
+      <c r="BI116" s="3"/>
+      <c r="BJ116" s="3"/>
+      <c r="BK116" s="3"/>
+      <c r="BL116" s="3"/>
+      <c r="BM116" s="3"/>
+      <c r="BN116" s="3"/>
+      <c r="BO116" s="3"/>
+      <c r="BP116" s="3"/>
+      <c r="BQ116" s="3"/>
+      <c r="BR116" s="3"/>
+      <c r="BS116" s="3"/>
+      <c r="BT116" s="3"/>
+      <c r="BU116" s="3"/>
+      <c r="BV116" s="3"/>
+      <c r="BW116" s="3"/>
+      <c r="BX116" s="3"/>
+      <c r="BY116" s="3"/>
+      <c r="BZ116" s="3"/>
+      <c r="CA116" s="3"/>
+      <c r="CB116" s="3"/>
+      <c r="CC116" s="3"/>
+      <c r="CD116" s="3"/>
+      <c r="CE116" s="3"/>
+      <c r="CF116" s="3"/>
+      <c r="CG116" s="3"/>
+      <c r="CH116" s="3"/>
+      <c r="CI116" s="3"/>
+      <c r="CJ116" s="3"/>
     </row>
     <row r="117" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
@@ -5563,47 +5601,8 @@
       <c r="B117" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="AX117" s="3"/>
-      <c r="AY117" s="3"/>
-      <c r="AZ117" s="3"/>
-      <c r="BA117" s="3"/>
-      <c r="BB117" s="3"/>
-      <c r="BC117" s="3"/>
-      <c r="BD117" s="3"/>
-      <c r="BE117" s="3"/>
-      <c r="BF117" s="3"/>
-      <c r="BG117" s="3"/>
-      <c r="BH117" s="3"/>
-      <c r="BI117" s="3"/>
-      <c r="BJ117" s="3"/>
-      <c r="BK117" s="3"/>
-      <c r="BL117" s="3"/>
-      <c r="BM117" s="3"/>
-      <c r="BN117" s="3"/>
-      <c r="BO117" s="3"/>
-      <c r="BP117" s="3"/>
-      <c r="BQ117" s="3"/>
-      <c r="BR117" s="3"/>
-      <c r="BS117" s="3"/>
-      <c r="BT117" s="3"/>
-      <c r="BU117" s="3"/>
-      <c r="BV117" s="3"/>
-      <c r="BW117" s="3"/>
-      <c r="BX117" s="3"/>
-      <c r="BY117" s="3"/>
-      <c r="BZ117" s="3"/>
-      <c r="CA117" s="3"/>
-      <c r="CB117" s="3"/>
-      <c r="CC117" s="3"/>
-      <c r="CD117" s="3"/>
-      <c r="CE117" s="3"/>
-      <c r="CF117" s="3"/>
-      <c r="CG117" s="3"/>
-      <c r="CH117" s="3"/>
-      <c r="CI117" s="3"/>
-      <c r="CJ117" s="3"/>
-    </row>
-    <row r="118" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>282</v>
       </c>
@@ -5650,78 +5649,117 @@
       <c r="CI118" s="3"/>
       <c r="CJ118" s="3"/>
     </row>
-    <row r="119" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>284</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C119" s="1"/>
-      <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="1"/>
-      <c r="H119" s="1"/>
-      <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-      <c r="K119" s="1"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1"/>
-      <c r="N119" s="1"/>
-      <c r="O119" s="1"/>
-      <c r="P119" s="1"/>
-      <c r="Q119" s="1"/>
-      <c r="R119" s="1"/>
-      <c r="S119" s="1"/>
-      <c r="T119" s="1"/>
-      <c r="U119" s="1"/>
-      <c r="V119" s="1"/>
-      <c r="W119" s="1"/>
-      <c r="X119" s="1"/>
-      <c r="Y119" s="1"/>
-      <c r="Z119" s="1"/>
-      <c r="AA119" s="1"/>
-      <c r="AB119" s="1"/>
-      <c r="AC119" s="1"/>
-      <c r="AD119" s="1"/>
-      <c r="AE119" s="1"/>
-      <c r="AF119" s="1"/>
-      <c r="AG119" s="1"/>
-      <c r="AH119" s="1"/>
-      <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
-      <c r="AK119" s="1"/>
-      <c r="AL119" s="1"/>
-      <c r="AM119" s="1"/>
-      <c r="AN119" s="1"/>
-      <c r="AO119" s="1"/>
-      <c r="AP119" s="1"/>
-      <c r="AQ119" s="1"/>
-      <c r="AR119" s="1"/>
-      <c r="AS119" s="1"/>
-      <c r="AT119" s="1"/>
-      <c r="AU119" s="1"/>
-      <c r="AV119" s="1"/>
-      <c r="AW119" s="1"/>
-    </row>
-    <row r="120" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>285</v>
+      </c>
+      <c r="AX119" s="3"/>
+      <c r="AY119" s="3"/>
+      <c r="AZ119" s="3"/>
+      <c r="BA119" s="3"/>
+      <c r="BB119" s="3"/>
+      <c r="BC119" s="3"/>
+      <c r="BD119" s="3"/>
+      <c r="BE119" s="3"/>
+      <c r="BF119" s="3"/>
+      <c r="BG119" s="3"/>
+      <c r="BH119" s="3"/>
+      <c r="BI119" s="3"/>
+      <c r="BJ119" s="3"/>
+      <c r="BK119" s="3"/>
+      <c r="BL119" s="3"/>
+      <c r="BM119" s="3"/>
+      <c r="BN119" s="3"/>
+      <c r="BO119" s="3"/>
+      <c r="BP119" s="3"/>
+      <c r="BQ119" s="3"/>
+      <c r="BR119" s="3"/>
+      <c r="BS119" s="3"/>
+      <c r="BT119" s="3"/>
+      <c r="BU119" s="3"/>
+      <c r="BV119" s="3"/>
+      <c r="BW119" s="3"/>
+      <c r="BX119" s="3"/>
+      <c r="BY119" s="3"/>
+      <c r="BZ119" s="3"/>
+      <c r="CA119" s="3"/>
+      <c r="CB119" s="3"/>
+      <c r="CC119" s="3"/>
+      <c r="CD119" s="3"/>
+      <c r="CE119" s="3"/>
+      <c r="CF119" s="3"/>
+      <c r="CG119" s="3"/>
+      <c r="CH119" s="3"/>
+      <c r="CI119" s="3"/>
+      <c r="CJ119" s="3"/>
+    </row>
+    <row r="120" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>138</v>
+      </c>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1"/>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1"/>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="1"/>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="1"/>
+      <c r="Z120" s="1"/>
+      <c r="AA120" s="1"/>
+      <c r="AB120" s="1"/>
+      <c r="AC120" s="1"/>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="1"/>
+      <c r="AF120" s="1"/>
+      <c r="AG120" s="1"/>
+      <c r="AH120" s="1"/>
+      <c r="AI120" s="1"/>
+      <c r="AJ120" s="1"/>
+      <c r="AK120" s="1"/>
+      <c r="AL120" s="1"/>
+      <c r="AM120" s="1"/>
+      <c r="AN120" s="1"/>
+      <c r="AO120" s="1"/>
+      <c r="AP120" s="1"/>
+      <c r="AQ120" s="1"/>
+      <c r="AR120" s="1"/>
+      <c r="AS120" s="1"/>
+      <c r="AT120" s="1"/>
+      <c r="AU120" s="1"/>
+      <c r="AV120" s="1"/>
+      <c r="AW120" s="1"/>
+    </row>
+    <row r="121" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="B121" s="8" t="s">
+      <c r="B121" s="4" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>289</v>
       </c>
@@ -5729,16 +5767,25 @@
         <v>290</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B123" s="4" t="s">
+      <c r="B123" s="8" t="s">
         <v>292</v>
       </c>
     </row>
+    <row r="124" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A2:T122"/>
+  <autoFilter ref="A2:T123"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$123</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$124</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="297">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t xml:space="preserve">夢人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unlock_stairs_nasu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ボクに任せて～</t>
   </si>
   <si>
     <t xml:space="preserve">sniff</t>
@@ -947,7 +953,13 @@
 しけてんにぇ！
 あんだお？
 駆逐してやる！
-心臓を捧げよ！！</t>
+心臓を捧げよ！！
+いあいあ。
+イア！イア！
+うがふなぐる…
+ふぐたん！
+んがあぐあ！ 
+にゃる・しゅたん！ </t>
   </si>
   <si>
     <t xml:space="preserve">layerGacha</t>
@@ -1730,9 +1742,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2084040</xdr:colOff>
+      <xdr:colOff>2083320</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1742,7 +1754,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50984640" cy="128160"/>
+          <a:ext cx="50983920" cy="127440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1775,9 +1787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>521640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>320400</xdr:rowOff>
+      <xdr:colOff>520920</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>319680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1787,7 +1799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55192680" cy="36069120"/>
+          <a:ext cx="55191960" cy="36230040"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1922,14 +1934,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ1048576"/>
+  <dimension ref="A1:CJ125"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B4" activeCellId="0" sqref="B4"/>
+      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2165,11 +2177,11 @@
       <c r="AU3" s="3"/>
       <c r="AV3" s="3"/>
     </row>
-    <row r="4" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="U4" s="3"/>
@@ -2201,7 +2213,7 @@
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
     </row>
-    <row r="5" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -2237,7 +2249,7 @@
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
     </row>
-    <row r="6" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -2273,7 +2285,7 @@
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2309,7 +2321,7 @@
       <c r="AU7" s="3"/>
       <c r="AV7" s="3"/>
     </row>
-    <row r="8" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
@@ -2345,7 +2357,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2381,7 +2393,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2417,7 +2429,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2453,8 +2465,8 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
+    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2489,14 +2501,13 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="4"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
@@ -2526,13 +2537,14 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="C14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2563,13 +2575,12 @@
       <c r="AV14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="4"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
@@ -2607,7 +2618,6 @@
         <v>64</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
@@ -2637,7 +2647,7 @@
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
     </row>
-    <row r="17" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
         <v>65</v>
       </c>
@@ -2675,7 +2685,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2713,7 +2723,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2721,6 +2731,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
@@ -2750,7 +2761,7 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2787,13 +2798,14 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>74</v>
       </c>
+      <c r="C21" s="4"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2823,7 +2835,7 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
@@ -2859,15 +2871,13 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2897,13 +2907,15 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2933,11 +2945,11 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="4" t="s">
         <v>82</v>
       </c>
       <c r="U25" s="3"/>
@@ -2969,14 +2981,13 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4" t="s">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C26" s="4"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -3006,8 +3017,8 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="27" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="4" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3043,14 +3054,14 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="4"/>
+      <c r="C28" s="4"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3080,14 +3091,14 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3117,14 +3128,14 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E30" s="4"/>
+      <c r="C30" s="4"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
       <c r="W30" s="3"/>
@@ -3154,13 +3165,14 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>94</v>
       </c>
+      <c r="E31" s="4"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -3190,7 +3202,7 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
@@ -3226,7 +3238,7 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
@@ -3262,7 +3274,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -3298,7 +3310,7 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3334,15 +3346,13 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
       <c r="W36" s="3"/>
@@ -3372,14 +3382,15 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -3409,13 +3420,14 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
+      <c r="F38" s="4"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -3517,11 +3529,11 @@
       <c r="AU40" s="3"/>
       <c r="AV40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="4" t="s">
         <v>114</v>
       </c>
       <c r="U41" s="3"/>
@@ -3553,11 +3565,11 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="1" t="s">
         <v>116</v>
       </c>
       <c r="U42" s="3"/>
@@ -3589,7 +3601,7 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -3625,7 +3637,7 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
@@ -3661,7 +3673,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
@@ -3698,30 +3710,12 @@
       <c r="AV45" s="3"/>
     </row>
     <row r="46" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
-      <c r="N46" s="5"/>
-      <c r="O46" s="5"/>
-      <c r="P46" s="5"/>
-      <c r="Q46" s="5"/>
-      <c r="R46" s="5"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
       <c r="U46" s="3"/>
       <c r="V46" s="3"/>
       <c r="W46" s="3"/>
@@ -3751,11 +3745,11 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>126</v>
       </c>
       <c r="C47" s="5"/>
@@ -3805,11 +3799,11 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="5" t="s">
         <v>128</v>
       </c>
       <c r="C48" s="5"/>
@@ -3859,13 +3853,31 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+    <row r="49" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+      <c r="N49" s="5"/>
+      <c r="O49" s="5"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="5"/>
+      <c r="T49" s="5"/>
       <c r="U49" s="3"/>
       <c r="V49" s="3"/>
       <c r="W49" s="3"/>
@@ -4003,11 +4015,11 @@
       <c r="AU52" s="3"/>
       <c r="AV52" s="3"/>
     </row>
-    <row r="53" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="1" t="s">
         <v>138</v>
       </c>
       <c r="U53" s="3"/>
@@ -4039,7 +4051,7 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
@@ -4075,11 +4087,11 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="4" t="s">
         <v>142</v>
       </c>
       <c r="U55" s="3"/>
@@ -4111,11 +4123,11 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="1" t="s">
         <v>144</v>
       </c>
       <c r="U56" s="3"/>
@@ -4147,11 +4159,11 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="4" t="s">
         <v>146</v>
       </c>
       <c r="U57" s="3"/>
@@ -4255,11 +4267,11 @@
       <c r="AU59" s="3"/>
       <c r="AV59" s="3"/>
     </row>
-    <row r="60" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="1" t="s">
         <v>152</v>
       </c>
       <c r="U60" s="3"/>
@@ -4291,9 +4303,12 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>153</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="U61" s="3"/>
       <c r="V61" s="3"/>
@@ -4324,11 +4339,8 @@
       <c r="AU61" s="3"/>
       <c r="AV61" s="3"/>
     </row>
-    <row r="62" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="4" t="s">
         <v>155</v>
       </c>
       <c r="U62" s="3"/>
@@ -4360,11 +4372,11 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="4" t="s">
         <v>157</v>
       </c>
       <c r="U63" s="3"/>
@@ -4396,12 +4408,12 @@
       <c r="AU63" s="3"/>
       <c r="AV63" s="3"/>
     </row>
-    <row r="64" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="4" t="s">
-        <v>138</v>
+      <c r="B64" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="U64" s="3"/>
       <c r="V64" s="3"/>
@@ -4432,12 +4444,12 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B65" s="1" t="s">
         <v>160</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>140</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -4468,11 +4480,11 @@
       <c r="AU65" s="3"/>
       <c r="AV65" s="3"/>
     </row>
-    <row r="66" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="1" t="s">
         <v>162</v>
       </c>
       <c r="U66" s="3"/>
@@ -4504,7 +4516,7 @@
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
         <v>163</v>
       </c>
@@ -4540,7 +4552,7 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
@@ -4576,7 +4588,7 @@
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
@@ -4612,7 +4624,7 @@
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
@@ -4648,11 +4660,11 @@
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="B71" s="4" t="s">
         <v>172</v>
       </c>
       <c r="U71" s="3"/>
@@ -4684,11 +4696,11 @@
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="1" t="s">
         <v>174</v>
       </c>
       <c r="U72" s="3"/>
@@ -4720,7 +4732,7 @@
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
@@ -4756,11 +4768,11 @@
       <c r="AU73" s="3"/>
       <c r="AV73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="B74" s="4" t="s">
         <v>178</v>
       </c>
       <c r="U74" s="3"/>
@@ -4864,7 +4876,7 @@
       <c r="AU76" s="3"/>
       <c r="AV76" s="3"/>
     </row>
-    <row r="77" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
         <v>183</v>
       </c>
@@ -4900,7 +4912,7 @@
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
@@ -4936,11 +4948,11 @@
       <c r="AU78" s="3"/>
       <c r="AV78" s="3"/>
     </row>
-    <row r="79" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="1" t="s">
         <v>188</v>
       </c>
       <c r="U79" s="3"/>
@@ -4972,11 +4984,11 @@
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="B80" s="4" t="s">
         <v>190</v>
       </c>
       <c r="U80" s="3"/>
@@ -5008,11 +5020,11 @@
       <c r="AU80" s="3"/>
       <c r="AV80" s="3"/>
     </row>
-    <row r="81" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="1" t="s">
         <v>192</v>
       </c>
       <c r="U81" s="3"/>
@@ -5044,13 +5056,41 @@
       <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+      <c r="AF82" s="3"/>
+      <c r="AG82" s="3"/>
+      <c r="AH82" s="3"/>
+      <c r="AI82" s="3"/>
+      <c r="AJ82" s="3"/>
+      <c r="AK82" s="3"/>
+      <c r="AL82" s="3"/>
+      <c r="AM82" s="3"/>
+      <c r="AN82" s="3"/>
+      <c r="AO82" s="3"/>
+      <c r="AP82" s="3"/>
+      <c r="AQ82" s="3"/>
+      <c r="AR82" s="3"/>
+      <c r="AS82" s="3"/>
+      <c r="AT82" s="3"/>
+      <c r="AU82" s="3"/>
+      <c r="AV82" s="3"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
@@ -5064,16 +5104,16 @@
       <c r="A84" s="1" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="273.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B85" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="335.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
         <v>200</v>
       </c>
@@ -5081,7 +5121,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
         <v>202</v>
       </c>
@@ -5089,39 +5129,39 @@
         <v>203</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
+    <row r="88" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-    </row>
-    <row r="89" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="1" t="s">
+    </row>
+    <row r="89" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="5" t="s">
         <v>206</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>207</v>
       </c>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="5"/>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="5"/>
+      <c r="O89" s="5"/>
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5"/>
+      <c r="R89" s="5"/>
+      <c r="S89" s="5"/>
+      <c r="T89" s="5"/>
     </row>
     <row r="90" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
@@ -5131,7 +5171,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
         <v>210</v>
       </c>
@@ -5139,7 +5179,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
@@ -5147,7 +5187,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>214</v>
       </c>
@@ -5155,7 +5195,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
@@ -5163,93 +5203,93 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
+    <row r="95" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
-      <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
-      <c r="J95" s="5"/>
-      <c r="K95" s="5"/>
-      <c r="L95" s="5"/>
-      <c r="M95" s="5"/>
-      <c r="N95" s="5"/>
-      <c r="O95" s="5"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="T95" s="5"/>
-    </row>
-    <row r="96" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
+    </row>
+    <row r="96" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="5" t="s">
         <v>220</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
-      <c r="E96" s="4"/>
-      <c r="F96" s="4"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="4"/>
-      <c r="I96" s="4"/>
-      <c r="J96" s="4"/>
-      <c r="K96" s="4"/>
-      <c r="L96" s="4"/>
-      <c r="M96" s="4"/>
-      <c r="N96" s="4"/>
-      <c r="O96" s="4"/>
-      <c r="P96" s="4"/>
-      <c r="Q96" s="4"/>
-      <c r="R96" s="4"/>
-      <c r="S96" s="4"/>
-      <c r="T96" s="4"/>
-    </row>
-    <row r="97" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="5" t="s">
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+    </row>
+    <row r="97" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="6" t="s">
         <v>222</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-    </row>
-    <row r="98" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="1" t="s">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="4"/>
+      <c r="Q97" s="4"/>
+      <c r="R97" s="4"/>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+    </row>
+    <row r="98" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="5" t="s">
         <v>224</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="5"/>
+      <c r="O98" s="5"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="T98" s="5"/>
+    </row>
+    <row r="99" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
         <v>226</v>
       </c>
@@ -5257,7 +5297,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
         <v>228</v>
       </c>
@@ -5265,31 +5305,13 @@
         <v>229</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5" t="s">
+    <row r="101" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C101" s="5"/>
-      <c r="D101" s="5"/>
-      <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
-      <c r="J101" s="5"/>
-      <c r="K101" s="5"/>
-      <c r="L101" s="5"/>
-      <c r="M101" s="5"/>
-      <c r="N101" s="5"/>
-      <c r="O101" s="5"/>
-      <c r="P101" s="5"/>
-      <c r="Q101" s="5"/>
-      <c r="R101" s="5"/>
-      <c r="S101" s="5"/>
-      <c r="T101" s="5"/>
     </row>
     <row r="102" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="5" t="s">
@@ -5317,77 +5339,95 @@
       <c r="S102" s="5"/>
       <c r="T102" s="5"/>
     </row>
-    <row r="103" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="1" t="s">
+    <row r="103" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="5" t="s">
         <v>234</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C103" s="4" t="s">
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="5"/>
+      <c r="O103" s="5"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="T103" s="5"/>
+    </row>
+    <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="D103" s="4" t="s">
+      <c r="B104" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E103" s="4" t="s">
+      <c r="C104" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="D104" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="G103" s="4" t="s">
+      <c r="E104" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="H103" s="4" t="s">
+      <c r="F104" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="I103" s="4" t="s">
+      <c r="G104" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="J103" s="4" t="s">
+      <c r="H104" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="K103" s="4" t="s">
+      <c r="I104" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="L103" s="4" t="s">
+      <c r="J104" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="M103" s="4" t="s">
+      <c r="K104" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="N103" s="4" t="s">
+      <c r="L104" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="O103" s="4" t="s">
+      <c r="M104" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="P103" s="4" t="s">
+      <c r="N104" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="Q103" s="4" t="s">
+      <c r="O104" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="R103" s="4" t="s">
+      <c r="P104" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="S103" s="4" t="s">
+      <c r="Q104" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="T103" s="4" t="s">
+      <c r="R104" s="4" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+      <c r="S104" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="B104" s="4" t="s">
+      <c r="T104" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
         <v>256</v>
       </c>
@@ -5395,41 +5435,41 @@
         <v>257</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="5" t="s">
+    <row r="106" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>258</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="5"/>
-      <c r="D106" s="5"/>
-      <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
-      <c r="J106" s="5"/>
-      <c r="K106" s="5"/>
-      <c r="L106" s="5"/>
-      <c r="M106" s="5"/>
-      <c r="N106" s="5"/>
-      <c r="O106" s="5"/>
-      <c r="P106" s="5"/>
-      <c r="Q106" s="5"/>
-      <c r="R106" s="5"/>
-      <c r="S106" s="5"/>
-      <c r="T106" s="5"/>
-    </row>
-    <row r="107" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="1" t="s">
+    </row>
+    <row r="107" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B107" s="7" t="s">
+      <c r="B107" s="4" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="5"/>
+      <c r="L107" s="5"/>
+      <c r="M107" s="5"/>
+      <c r="N107" s="5"/>
+      <c r="O107" s="5"/>
+      <c r="P107" s="5"/>
+      <c r="Q107" s="5"/>
+      <c r="R107" s="5"/>
+      <c r="S107" s="5"/>
+      <c r="T107" s="5"/>
+    </row>
+    <row r="108" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
@@ -5437,85 +5477,85 @@
         <v>263</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="4" t="s">
+      <c r="B109" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="Q110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="R110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="T110" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="4" t="s">
+      <c r="B111" s="1" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="H111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="K111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="L111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="M111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="N111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="P111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="S111" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="T111" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>270</v>
       </c>
@@ -5523,11 +5563,11 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -5539,68 +5579,68 @@
         <v>275</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="4" t="s">
+      <c r="B115" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>278</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="AX116" s="3"/>
-      <c r="AY116" s="3"/>
-      <c r="AZ116" s="3"/>
-      <c r="BA116" s="3"/>
-      <c r="BB116" s="3"/>
-      <c r="BC116" s="3"/>
-      <c r="BD116" s="3"/>
-      <c r="BE116" s="3"/>
-      <c r="BF116" s="3"/>
-      <c r="BG116" s="3"/>
-      <c r="BH116" s="3"/>
-      <c r="BI116" s="3"/>
-      <c r="BJ116" s="3"/>
-      <c r="BK116" s="3"/>
-      <c r="BL116" s="3"/>
-      <c r="BM116" s="3"/>
-      <c r="BN116" s="3"/>
-      <c r="BO116" s="3"/>
-      <c r="BP116" s="3"/>
-      <c r="BQ116" s="3"/>
-      <c r="BR116" s="3"/>
-      <c r="BS116" s="3"/>
-      <c r="BT116" s="3"/>
-      <c r="BU116" s="3"/>
-      <c r="BV116" s="3"/>
-      <c r="BW116" s="3"/>
-      <c r="BX116" s="3"/>
-      <c r="BY116" s="3"/>
-      <c r="BZ116" s="3"/>
-      <c r="CA116" s="3"/>
-      <c r="CB116" s="3"/>
-      <c r="CC116" s="3"/>
-      <c r="CD116" s="3"/>
-      <c r="CE116" s="3"/>
-      <c r="CF116" s="3"/>
-      <c r="CG116" s="3"/>
-      <c r="CH116" s="3"/>
-      <c r="CI116" s="3"/>
-      <c r="CJ116" s="3"/>
-    </row>
-    <row r="117" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="117" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>280</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>281</v>
       </c>
+      <c r="AX117" s="3"/>
+      <c r="AY117" s="3"/>
+      <c r="AZ117" s="3"/>
+      <c r="BA117" s="3"/>
+      <c r="BB117" s="3"/>
+      <c r="BC117" s="3"/>
+      <c r="BD117" s="3"/>
+      <c r="BE117" s="3"/>
+      <c r="BF117" s="3"/>
+      <c r="BG117" s="3"/>
+      <c r="BH117" s="3"/>
+      <c r="BI117" s="3"/>
+      <c r="BJ117" s="3"/>
+      <c r="BK117" s="3"/>
+      <c r="BL117" s="3"/>
+      <c r="BM117" s="3"/>
+      <c r="BN117" s="3"/>
+      <c r="BO117" s="3"/>
+      <c r="BP117" s="3"/>
+      <c r="BQ117" s="3"/>
+      <c r="BR117" s="3"/>
+      <c r="BS117" s="3"/>
+      <c r="BT117" s="3"/>
+      <c r="BU117" s="3"/>
+      <c r="BV117" s="3"/>
+      <c r="BW117" s="3"/>
+      <c r="BX117" s="3"/>
+      <c r="BY117" s="3"/>
+      <c r="BZ117" s="3"/>
+      <c r="CA117" s="3"/>
+      <c r="CB117" s="3"/>
+      <c r="CC117" s="3"/>
+      <c r="CD117" s="3"/>
+      <c r="CE117" s="3"/>
+      <c r="CF117" s="3"/>
+      <c r="CG117" s="3"/>
+      <c r="CH117" s="3"/>
+      <c r="CI117" s="3"/>
+      <c r="CJ117" s="3"/>
     </row>
     <row r="118" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
@@ -5609,47 +5649,8 @@
       <c r="B118" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="AX118" s="3"/>
-      <c r="AY118" s="3"/>
-      <c r="AZ118" s="3"/>
-      <c r="BA118" s="3"/>
-      <c r="BB118" s="3"/>
-      <c r="BC118" s="3"/>
-      <c r="BD118" s="3"/>
-      <c r="BE118" s="3"/>
-      <c r="BF118" s="3"/>
-      <c r="BG118" s="3"/>
-      <c r="BH118" s="3"/>
-      <c r="BI118" s="3"/>
-      <c r="BJ118" s="3"/>
-      <c r="BK118" s="3"/>
-      <c r="BL118" s="3"/>
-      <c r="BM118" s="3"/>
-      <c r="BN118" s="3"/>
-      <c r="BO118" s="3"/>
-      <c r="BP118" s="3"/>
-      <c r="BQ118" s="3"/>
-      <c r="BR118" s="3"/>
-      <c r="BS118" s="3"/>
-      <c r="BT118" s="3"/>
-      <c r="BU118" s="3"/>
-      <c r="BV118" s="3"/>
-      <c r="BW118" s="3"/>
-      <c r="BX118" s="3"/>
-      <c r="BY118" s="3"/>
-      <c r="BZ118" s="3"/>
-      <c r="CA118" s="3"/>
-      <c r="CB118" s="3"/>
-      <c r="CC118" s="3"/>
-      <c r="CD118" s="3"/>
-      <c r="CE118" s="3"/>
-      <c r="CF118" s="3"/>
-      <c r="CG118" s="3"/>
-      <c r="CH118" s="3"/>
-      <c r="CI118" s="3"/>
-      <c r="CJ118" s="3"/>
-    </row>
-    <row r="119" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="119" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>284</v>
       </c>
@@ -5696,78 +5697,117 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
     </row>
-    <row r="120" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C120" s="1"/>
-      <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="1"/>
-      <c r="H120" s="1"/>
-      <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-      <c r="K120" s="1"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1"/>
-      <c r="N120" s="1"/>
-      <c r="O120" s="1"/>
-      <c r="P120" s="1"/>
-      <c r="Q120" s="1"/>
-      <c r="R120" s="1"/>
-      <c r="S120" s="1"/>
-      <c r="T120" s="1"/>
-      <c r="U120" s="1"/>
-      <c r="V120" s="1"/>
-      <c r="W120" s="1"/>
-      <c r="X120" s="1"/>
-      <c r="Y120" s="1"/>
-      <c r="Z120" s="1"/>
-      <c r="AA120" s="1"/>
-      <c r="AB120" s="1"/>
-      <c r="AC120" s="1"/>
-      <c r="AD120" s="1"/>
-      <c r="AE120" s="1"/>
-      <c r="AF120" s="1"/>
-      <c r="AG120" s="1"/>
-      <c r="AH120" s="1"/>
-      <c r="AI120" s="1"/>
-      <c r="AJ120" s="1"/>
-      <c r="AK120" s="1"/>
-      <c r="AL120" s="1"/>
-      <c r="AM120" s="1"/>
-      <c r="AN120" s="1"/>
-      <c r="AO120" s="1"/>
-      <c r="AP120" s="1"/>
-      <c r="AQ120" s="1"/>
-      <c r="AR120" s="1"/>
-      <c r="AS120" s="1"/>
-      <c r="AT120" s="1"/>
-      <c r="AU120" s="1"/>
-      <c r="AV120" s="1"/>
-      <c r="AW120" s="1"/>
-    </row>
-    <row r="121" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>287</v>
+      </c>
+      <c r="AX120" s="3"/>
+      <c r="AY120" s="3"/>
+      <c r="AZ120" s="3"/>
+      <c r="BA120" s="3"/>
+      <c r="BB120" s="3"/>
+      <c r="BC120" s="3"/>
+      <c r="BD120" s="3"/>
+      <c r="BE120" s="3"/>
+      <c r="BF120" s="3"/>
+      <c r="BG120" s="3"/>
+      <c r="BH120" s="3"/>
+      <c r="BI120" s="3"/>
+      <c r="BJ120" s="3"/>
+      <c r="BK120" s="3"/>
+      <c r="BL120" s="3"/>
+      <c r="BM120" s="3"/>
+      <c r="BN120" s="3"/>
+      <c r="BO120" s="3"/>
+      <c r="BP120" s="3"/>
+      <c r="BQ120" s="3"/>
+      <c r="BR120" s="3"/>
+      <c r="BS120" s="3"/>
+      <c r="BT120" s="3"/>
+      <c r="BU120" s="3"/>
+      <c r="BV120" s="3"/>
+      <c r="BW120" s="3"/>
+      <c r="BX120" s="3"/>
+      <c r="BY120" s="3"/>
+      <c r="BZ120" s="3"/>
+      <c r="CA120" s="3"/>
+      <c r="CB120" s="3"/>
+      <c r="CC120" s="3"/>
+      <c r="CD120" s="3"/>
+      <c r="CE120" s="3"/>
+      <c r="CF120" s="3"/>
+      <c r="CG120" s="3"/>
+      <c r="CH120" s="3"/>
+      <c r="CI120" s="3"/>
+      <c r="CJ120" s="3"/>
+    </row>
+    <row r="121" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>140</v>
+      </c>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1"/>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1"/>
+      <c r="P121" s="1"/>
+      <c r="Q121" s="1"/>
+      <c r="R121" s="1"/>
+      <c r="S121" s="1"/>
+      <c r="T121" s="1"/>
+      <c r="U121" s="1"/>
+      <c r="V121" s="1"/>
+      <c r="W121" s="1"/>
+      <c r="X121" s="1"/>
+      <c r="Y121" s="1"/>
+      <c r="Z121" s="1"/>
+      <c r="AA121" s="1"/>
+      <c r="AB121" s="1"/>
+      <c r="AC121" s="1"/>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="1"/>
+      <c r="AF121" s="1"/>
+      <c r="AG121" s="1"/>
+      <c r="AH121" s="1"/>
+      <c r="AI121" s="1"/>
+      <c r="AJ121" s="1"/>
+      <c r="AK121" s="1"/>
+      <c r="AL121" s="1"/>
+      <c r="AM121" s="1"/>
+      <c r="AN121" s="1"/>
+      <c r="AO121" s="1"/>
+      <c r="AP121" s="1"/>
+      <c r="AQ121" s="1"/>
+      <c r="AR121" s="1"/>
+      <c r="AS121" s="1"/>
+      <c r="AT121" s="1"/>
+      <c r="AU121" s="1"/>
+      <c r="AV121" s="1"/>
+      <c r="AW121" s="1"/>
+    </row>
+    <row r="122" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="B122" s="8" t="s">
+      <c r="B122" s="4" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
         <v>291</v>
       </c>
@@ -5775,17 +5815,24 @@
         <v>292</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B124" s="4" t="s">
+      <c r="B124" s="8" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>296</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T123"/>
+  <autoFilter ref="A2:T124"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/JP (Exclude Game)/Data/chara_talk.xlsx
+++ b/JP (Exclude Game)/Data/chara_talk.xlsx
@@ -11,7 +11,7 @@
     <sheet name="1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$124</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$T$126</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="301">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -173,6 +173,17 @@
 たーる！
 たーるっ
 たる</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awaken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">私を怒らせた{ね}？
+守るべきもののために！
+まだ終わらない{よ}！
+これが私の…本気{だ}！
+君は私を怒らせ{た}！
+ここからが本番{だ}！</t>
   </si>
   <si>
     <r>
@@ -202,6 +213,15 @@
 来たれ、終焉の炎…メテオ！ 
 星々よ、我が声に応えよ&amp;…メテオ！
 この空に希望は無く、この地に慈悲も無い&amp;ならばーー落ちよ、メテオ！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phrase_ActBurnMana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">燃えろ！私の小宇宙{よ}！
+今一度、燃え上がれ！
+まだ{だ}！
+燃えよ！</t>
   </si>
   <si>
     <t xml:space="preserve">phrase_ActSwarm</t>
@@ -1742,9 +1762,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>2083320</xdr:colOff>
+      <xdr:colOff>2082240</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1754,7 +1774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="50983920" cy="127440"/>
+          <a:ext cx="50982840" cy="126360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,9 +1807,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>520920</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>319680</xdr:rowOff>
+      <xdr:colOff>519840</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>318600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1799,7 +1819,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="55191960" cy="36230040"/>
+          <a:ext cx="55190880" cy="37593000"/>
         </a:xfrm>
         <a:solidFill>
           <a:srgbClr val="ffffff"/>
@@ -1934,14 +1954,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:CJ125"/>
+  <dimension ref="A1:CJ127"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2357,7 +2377,7 @@
       <c r="AU8" s="3"/>
       <c r="AV8" s="3"/>
     </row>
-    <row r="9" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
@@ -2393,7 +2413,7 @@
       <c r="AU9" s="3"/>
       <c r="AV9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
@@ -2429,7 +2449,7 @@
       <c r="AU10" s="3"/>
       <c r="AV10" s="3"/>
     </row>
-    <row r="11" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
@@ -2465,7 +2485,7 @@
       <c r="AU11" s="3"/>
       <c r="AV11" s="3"/>
     </row>
-    <row r="12" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>55</v>
       </c>
@@ -2501,8 +2521,8 @@
       <c r="AU12" s="3"/>
       <c r="AV12" s="3"/>
     </row>
-    <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
+    <row r="13" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2537,14 +2557,13 @@
       <c r="AU13" s="3"/>
       <c r="AV13" s="3"/>
     </row>
-    <row r="14" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
+    <row r="14" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
@@ -2574,7 +2593,7 @@
       <c r="AU14" s="3"/>
       <c r="AV14" s="3"/>
     </row>
-    <row r="15" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
         <v>61</v>
       </c>
@@ -2610,8 +2629,8 @@
       <c r="AU15" s="3"/>
       <c r="AV15" s="3"/>
     </row>
-    <row r="16" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+    <row r="16" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
         <v>63</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2648,14 +2667,12 @@
       <c r="AV16" s="3"/>
     </row>
     <row r="17" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="4" t="s">
         <v>65</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
@@ -2685,7 +2702,7 @@
       <c r="AU17" s="3"/>
       <c r="AV17" s="3"/>
     </row>
-    <row r="18" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>67</v>
       </c>
@@ -2693,7 +2710,6 @@
         <v>68</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
@@ -2723,7 +2739,7 @@
       <c r="AU18" s="3"/>
       <c r="AV18" s="3"/>
     </row>
-    <row r="19" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>69</v>
       </c>
@@ -2761,7 +2777,7 @@
       <c r="AU19" s="3"/>
       <c r="AV19" s="3"/>
     </row>
-    <row r="20" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
         <v>71</v>
       </c>
@@ -2769,6 +2785,7 @@
         <v>72</v>
       </c>
       <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
       <c r="W20" s="3"/>
@@ -2798,7 +2815,7 @@
       <c r="AU20" s="3"/>
       <c r="AV20" s="3"/>
     </row>
-    <row r="21" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
         <v>73</v>
       </c>
@@ -2806,6 +2823,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
       <c r="W21" s="3"/>
@@ -2835,13 +2853,14 @@
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
     </row>
-    <row r="22" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>76</v>
       </c>
+      <c r="C22" s="4"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
       <c r="W22" s="3"/>
@@ -2871,13 +2890,14 @@
       <c r="AU22" s="3"/>
       <c r="AV22" s="3"/>
     </row>
-    <row r="23" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="C23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
       <c r="W23" s="3"/>
@@ -2907,15 +2927,13 @@
       <c r="AU23" s="3"/>
       <c r="AV23" s="3"/>
     </row>
-    <row r="24" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
       <c r="W24" s="3"/>
@@ -2945,7 +2963,7 @@
       <c r="AU24" s="3"/>
       <c r="AV24" s="3"/>
     </row>
-    <row r="25" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>81</v>
       </c>
@@ -2981,13 +2999,15 @@
       <c r="AU25" s="3"/>
       <c r="AV25" s="3"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="4" t="s">
         <v>84</v>
       </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
       <c r="W26" s="3"/>
@@ -3017,14 +3037,13 @@
       <c r="AU26" s="3"/>
       <c r="AV26" s="3"/>
     </row>
-    <row r="27" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4" t="s">
+    <row r="27" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="4"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
       <c r="W27" s="3"/>
@@ -3054,14 +3073,13 @@
       <c r="AU27" s="3"/>
       <c r="AV27" s="3"/>
     </row>
-    <row r="28" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="4"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
       <c r="W28" s="3"/>
@@ -3091,14 +3109,14 @@
       <c r="AU28" s="3"/>
       <c r="AV28" s="3"/>
     </row>
-    <row r="29" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+    <row r="29" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="4" t="s">
         <v>89</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="C29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
       <c r="W29" s="3"/>
@@ -3128,7 +3146,7 @@
       <c r="AU29" s="3"/>
       <c r="AV29" s="3"/>
     </row>
-    <row r="30" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>91</v>
       </c>
@@ -3165,14 +3183,14 @@
       <c r="AU30" s="3"/>
       <c r="AV30" s="3"/>
     </row>
-    <row r="31" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="126.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E31" s="4"/>
+      <c r="D31" s="4"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
       <c r="W31" s="3"/>
@@ -3202,13 +3220,14 @@
       <c r="AU31" s="3"/>
       <c r="AV31" s="3"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>96</v>
       </c>
+      <c r="C32" s="4"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
       <c r="W32" s="3"/>
@@ -3238,13 +3257,14 @@
       <c r="AU32" s="3"/>
       <c r="AV32" s="3"/>
     </row>
-    <row r="33" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>98</v>
       </c>
+      <c r="E33" s="4"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
       <c r="W33" s="3"/>
@@ -3274,7 +3294,7 @@
       <c r="AU33" s="3"/>
       <c r="AV33" s="3"/>
     </row>
-    <row r="34" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
         <v>99</v>
       </c>
@@ -3310,7 +3330,7 @@
       <c r="AU34" s="3"/>
       <c r="AV34" s="3"/>
     </row>
-    <row r="35" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
         <v>101</v>
       </c>
@@ -3346,7 +3366,7 @@
       <c r="AU35" s="3"/>
       <c r="AV35" s="3"/>
     </row>
-    <row r="36" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
         <v>103</v>
       </c>
@@ -3382,15 +3402,13 @@
       <c r="AU36" s="3"/>
       <c r="AV36" s="3"/>
     </row>
-    <row r="37" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
       <c r="W37" s="3"/>
@@ -3420,14 +3438,13 @@
       <c r="AU37" s="3"/>
       <c r="AV37" s="3"/>
     </row>
-    <row r="38" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="4"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
       <c r="W38" s="3"/>
@@ -3457,13 +3474,15 @@
       <c r="AU38" s="3"/>
       <c r="AV38" s="3"/>
     </row>
-    <row r="39" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>110</v>
       </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
@@ -3493,13 +3512,14 @@
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
     </row>
-    <row r="40" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>112</v>
       </c>
+      <c r="F40" s="4"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
@@ -3565,11 +3585,11 @@
       <c r="AU41" s="3"/>
       <c r="AV41" s="3"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="4" t="s">
         <v>116</v>
       </c>
       <c r="U42" s="3"/>
@@ -3601,7 +3621,7 @@
       <c r="AU42" s="3"/>
       <c r="AV42" s="3"/>
     </row>
-    <row r="43" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>117</v>
       </c>
@@ -3637,11 +3657,11 @@
       <c r="AU43" s="3"/>
       <c r="AV43" s="3"/>
     </row>
-    <row r="44" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="1" t="s">
         <v>120</v>
       </c>
       <c r="U44" s="3"/>
@@ -3673,7 +3693,7 @@
       <c r="AU44" s="3"/>
       <c r="AV44" s="3"/>
     </row>
-    <row r="45" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
         <v>121</v>
       </c>
@@ -3709,7 +3729,7 @@
       <c r="AU45" s="3"/>
       <c r="AV45" s="3"/>
     </row>
-    <row r="46" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
         <v>123</v>
       </c>
@@ -3745,31 +3765,13 @@
       <c r="AU46" s="3"/>
       <c r="AV46" s="3"/>
     </row>
-    <row r="47" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="5" t="s">
+    <row r="47" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
-      <c r="N47" s="5"/>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
       <c r="U47" s="3"/>
       <c r="V47" s="3"/>
       <c r="W47" s="3"/>
@@ -3799,31 +3801,13 @@
       <c r="AU47" s="3"/>
       <c r="AV47" s="3"/>
     </row>
-    <row r="48" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="5" t="s">
+    <row r="48" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
-      <c r="N48" s="5"/>
-      <c r="O48" s="5"/>
-      <c r="P48" s="5"/>
-      <c r="Q48" s="5"/>
-      <c r="R48" s="5"/>
-      <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
       <c r="U48" s="3"/>
       <c r="V48" s="3"/>
       <c r="W48" s="3"/>
@@ -3853,7 +3837,7 @@
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
     </row>
-    <row r="49" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="5" t="s">
         <v>129</v>
       </c>
@@ -3907,13 +3891,31 @@
       <c r="AU49" s="3"/>
       <c r="AV49" s="3"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
+    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="5" t="s">
         <v>132</v>
       </c>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="5"/>
+      <c r="T50" s="5"/>
       <c r="U50" s="3"/>
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
@@ -3943,13 +3945,31 @@
       <c r="AU50" s="3"/>
       <c r="AV50" s="3"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
+    <row r="51" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="4" t="s">
         <v>134</v>
       </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
       <c r="U51" s="3"/>
       <c r="V51" s="3"/>
       <c r="W51" s="3"/>
@@ -4051,11 +4071,11 @@
       <c r="AU53" s="3"/>
       <c r="AV53" s="3"/>
     </row>
-    <row r="54" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="B54" s="1" t="s">
         <v>140</v>
       </c>
       <c r="U54" s="3"/>
@@ -4087,11 +4107,11 @@
       <c r="AU54" s="3"/>
       <c r="AV54" s="3"/>
     </row>
-    <row r="55" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="1" t="s">
         <v>142</v>
       </c>
       <c r="U55" s="3"/>
@@ -4123,11 +4143,11 @@
       <c r="AU55" s="3"/>
       <c r="AV55" s="3"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="4" t="s">
         <v>144</v>
       </c>
       <c r="U56" s="3"/>
@@ -4159,7 +4179,7 @@
       <c r="AU56" s="3"/>
       <c r="AV56" s="3"/>
     </row>
-    <row r="57" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>145</v>
       </c>
@@ -4231,11 +4251,11 @@
       <c r="AU58" s="3"/>
       <c r="AV58" s="3"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="4" t="s">
         <v>150</v>
       </c>
       <c r="U59" s="3"/>
@@ -4303,11 +4323,11 @@
       <c r="AU60" s="3"/>
       <c r="AV60" s="3"/>
     </row>
-    <row r="61" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="1" t="s">
         <v>154</v>
       </c>
       <c r="U61" s="3"/>
@@ -4343,6 +4363,9 @@
       <c r="A62" s="1" t="s">
         <v>155</v>
       </c>
+      <c r="B62" s="1" t="s">
+        <v>156</v>
+      </c>
       <c r="U62" s="3"/>
       <c r="V62" s="3"/>
       <c r="W62" s="3"/>
@@ -4372,12 +4395,12 @@
       <c r="AU62" s="3"/>
       <c r="AV62" s="3"/>
     </row>
-    <row r="63" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="U63" s="3"/>
       <c r="V63" s="3"/>
@@ -4410,9 +4433,6 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B64" s="1" t="s">
         <v>159</v>
       </c>
       <c r="U64" s="3"/>
@@ -4444,12 +4464,12 @@
       <c r="AU64" s="3"/>
       <c r="AV64" s="3"/>
     </row>
-    <row r="65" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="U65" s="3"/>
       <c r="V65" s="3"/>
@@ -4482,10 +4502,10 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="U66" s="3"/>
       <c r="V66" s="3"/>
@@ -4516,12 +4536,12 @@
       <c r="AU66" s="3"/>
       <c r="AV66" s="3"/>
     </row>
-    <row r="67" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
@@ -4552,11 +4572,11 @@
       <c r="AU67" s="3"/>
       <c r="AV67" s="3"/>
     </row>
-    <row r="68" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="1" t="s">
         <v>166</v>
       </c>
       <c r="U68" s="3"/>
@@ -4588,7 +4608,7 @@
       <c r="AU68" s="3"/>
       <c r="AV68" s="3"/>
     </row>
-    <row r="69" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
         <v>167</v>
       </c>
@@ -4624,7 +4644,7 @@
       <c r="AU69" s="3"/>
       <c r="AV69" s="3"/>
     </row>
-    <row r="70" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
         <v>169</v>
       </c>
@@ -4660,7 +4680,7 @@
       <c r="AU70" s="3"/>
       <c r="AV70" s="3"/>
     </row>
-    <row r="71" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
         <v>171</v>
       </c>
@@ -4696,11 +4716,11 @@
       <c r="AU71" s="3"/>
       <c r="AV71" s="3"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="B72" s="4" t="s">
         <v>174</v>
       </c>
       <c r="U72" s="3"/>
@@ -4732,7 +4752,7 @@
       <c r="AU72" s="3"/>
       <c r="AV72" s="3"/>
     </row>
-    <row r="73" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
         <v>175</v>
       </c>
@@ -4768,11 +4788,11 @@
       <c r="AU73" s="3"/>
       <c r="AV73" s="3"/>
     </row>
-    <row r="74" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="1" t="s">
         <v>178</v>
       </c>
       <c r="U74" s="3"/>
@@ -4804,11 +4824,11 @@
       <c r="AU74" s="3"/>
       <c r="AV74" s="3"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="B75" s="4" t="s">
         <v>180</v>
       </c>
       <c r="U75" s="3"/>
@@ -4840,11 +4860,11 @@
       <c r="AU75" s="3"/>
       <c r="AV75" s="3"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="B76" s="4" t="s">
         <v>182</v>
       </c>
       <c r="U76" s="3"/>
@@ -4912,7 +4932,7 @@
       <c r="AU77" s="3"/>
       <c r="AV77" s="3"/>
     </row>
-    <row r="78" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
         <v>185</v>
       </c>
@@ -4984,11 +5004,11 @@
       <c r="AU79" s="3"/>
       <c r="AV79" s="3"/>
     </row>
-    <row r="80" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="1" t="s">
         <v>190</v>
       </c>
       <c r="U80" s="3"/>
@@ -5056,7 +5076,7 @@
       <c r="AU81" s="3"/>
       <c r="AV81" s="3"/>
     </row>
-    <row r="82" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>193</v>
       </c>
@@ -5099,37 +5119,93 @@
       <c r="B83" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="U83" s="3"/>
+      <c r="V83" s="3"/>
+      <c r="W83" s="3"/>
+      <c r="X83" s="3"/>
+      <c r="Y83" s="3"/>
+      <c r="Z83" s="3"/>
+      <c r="AA83" s="3"/>
+      <c r="AB83" s="3"/>
+      <c r="AC83" s="3"/>
+      <c r="AD83" s="3"/>
+      <c r="AE83" s="3"/>
+      <c r="AF83" s="3"/>
+      <c r="AG83" s="3"/>
+      <c r="AH83" s="3"/>
+      <c r="AI83" s="3"/>
+      <c r="AJ83" s="3"/>
+      <c r="AK83" s="3"/>
+      <c r="AL83" s="3"/>
+      <c r="AM83" s="3"/>
+      <c r="AN83" s="3"/>
+      <c r="AO83" s="3"/>
+      <c r="AP83" s="3"/>
+      <c r="AQ83" s="3"/>
+      <c r="AR83" s="3"/>
+      <c r="AS83" s="3"/>
+      <c r="AT83" s="3"/>
+      <c r="AU83" s="3"/>
+      <c r="AV83" s="3"/>
+    </row>
+    <row r="84" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="4" t="s">
         <v>198</v>
       </c>
+      <c r="U84" s="3"/>
+      <c r="V84" s="3"/>
+      <c r="W84" s="3"/>
+      <c r="X84" s="3"/>
+      <c r="Y84" s="3"/>
+      <c r="Z84" s="3"/>
+      <c r="AA84" s="3"/>
+      <c r="AB84" s="3"/>
+      <c r="AC84" s="3"/>
+      <c r="AD84" s="3"/>
+      <c r="AE84" s="3"/>
+      <c r="AF84" s="3"/>
+      <c r="AG84" s="3"/>
+      <c r="AH84" s="3"/>
+      <c r="AI84" s="3"/>
+      <c r="AJ84" s="3"/>
+      <c r="AK84" s="3"/>
+      <c r="AL84" s="3"/>
+      <c r="AM84" s="3"/>
+      <c r="AN84" s="3"/>
+      <c r="AO84" s="3"/>
+      <c r="AP84" s="3"/>
+      <c r="AQ84" s="3"/>
+      <c r="AR84" s="3"/>
+      <c r="AS84" s="3"/>
+      <c r="AT84" s="3"/>
+      <c r="AU84" s="3"/>
+      <c r="AV84" s="3"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="335.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B86" s="4" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B87" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="335.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
         <v>204</v>
       </c>
@@ -5137,33 +5213,15 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="5" t="s">
+    <row r="89" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="5"/>
-      <c r="L89" s="5"/>
-      <c r="M89" s="5"/>
-      <c r="N89" s="5"/>
-      <c r="O89" s="5"/>
-      <c r="P89" s="5"/>
-      <c r="Q89" s="5"/>
-      <c r="R89" s="5"/>
-      <c r="S89" s="5"/>
-      <c r="T89" s="5"/>
-    </row>
-    <row r="90" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="90" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>208</v>
       </c>
@@ -5171,15 +5229,33 @@
         <v>209</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="1" t="s">
+    <row r="91" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="5" t="s">
         <v>210</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="5"/>
+      <c r="O91" s="5"/>
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5"/>
+      <c r="R91" s="5"/>
+      <c r="S91" s="5"/>
+      <c r="T91" s="5"/>
+    </row>
+    <row r="92" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
         <v>212</v>
       </c>
@@ -5187,7 +5263,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
         <v>214</v>
       </c>
@@ -5195,7 +5271,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
         <v>216</v>
       </c>
@@ -5203,7 +5279,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
         <v>218</v>
       </c>
@@ -5211,59 +5287,23 @@
         <v>219</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
+    <row r="96" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
-      <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
-      <c r="J96" s="5"/>
-      <c r="K96" s="5"/>
-      <c r="L96" s="5"/>
-      <c r="M96" s="5"/>
-      <c r="N96" s="5"/>
-      <c r="O96" s="5"/>
-      <c r="P96" s="5"/>
-      <c r="Q96" s="5"/>
-      <c r="R96" s="5"/>
-      <c r="S96" s="5"/>
-      <c r="T96" s="5"/>
-    </row>
-    <row r="97" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="6" t="s">
+    </row>
+    <row r="97" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C97" s="4"/>
-      <c r="D97" s="4"/>
-      <c r="E97" s="4"/>
-      <c r="F97" s="4"/>
-      <c r="G97" s="4"/>
-      <c r="H97" s="4"/>
-      <c r="I97" s="4"/>
-      <c r="J97" s="4"/>
-      <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
-      <c r="M97" s="4"/>
-      <c r="N97" s="4"/>
-      <c r="O97" s="4"/>
-      <c r="P97" s="4"/>
-      <c r="Q97" s="4"/>
-      <c r="R97" s="4"/>
-      <c r="S97" s="4"/>
-      <c r="T97" s="4"/>
-    </row>
-    <row r="98" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="98" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
         <v>224</v>
       </c>
@@ -5289,23 +5329,59 @@
       <c r="S98" s="5"/>
       <c r="T98" s="5"/>
     </row>
-    <row r="99" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="1" t="s">
+    <row r="99" customFormat="false" ht="252.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="6" t="s">
         <v>226</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="1" t="s">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="4"/>
+      <c r="Q99" s="4"/>
+      <c r="R99" s="4"/>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+    </row>
+    <row r="100" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="5" t="s">
         <v>228</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="5"/>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5"/>
+      <c r="J100" s="5"/>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="5"/>
+      <c r="O100" s="5"/>
+      <c r="P100" s="5"/>
+      <c r="Q100" s="5"/>
+      <c r="R100" s="5"/>
+      <c r="S100" s="5"/>
+      <c r="T100" s="5"/>
+    </row>
+    <row r="101" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
@@ -5313,249 +5389,195 @@
         <v>231</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5" t="s">
+    <row r="102" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="s">
         <v>232</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C102" s="5"/>
-      <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
-      <c r="J102" s="5"/>
-      <c r="K102" s="5"/>
-      <c r="L102" s="5"/>
-      <c r="M102" s="5"/>
-      <c r="N102" s="5"/>
-      <c r="O102" s="5"/>
-      <c r="P102" s="5"/>
-      <c r="Q102" s="5"/>
-      <c r="R102" s="5"/>
-      <c r="S102" s="5"/>
-      <c r="T102" s="5"/>
-    </row>
-    <row r="103" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5" t="s">
+    </row>
+    <row r="103" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="s">
         <v>234</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-      <c r="F103" s="5"/>
-      <c r="G103" s="5"/>
-      <c r="H103" s="5"/>
-      <c r="I103" s="5"/>
-      <c r="J103" s="5"/>
-      <c r="K103" s="5"/>
-      <c r="L103" s="5"/>
-      <c r="M103" s="5"/>
-      <c r="N103" s="5"/>
-      <c r="O103" s="5"/>
-      <c r="P103" s="5"/>
-      <c r="Q103" s="5"/>
-      <c r="R103" s="5"/>
-      <c r="S103" s="5"/>
-      <c r="T103" s="5"/>
-    </row>
-    <row r="104" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="1" t="s">
+    </row>
+    <row r="104" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="5" t="s">
         <v>236</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C104" s="4" t="s">
+      <c r="C104" s="5"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5"/>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="5"/>
+      <c r="O104" s="5"/>
+      <c r="P104" s="5"/>
+      <c r="Q104" s="5"/>
+      <c r="R104" s="5"/>
+      <c r="S104" s="5"/>
+      <c r="T104" s="5"/>
+    </row>
+    <row r="105" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="D104" s="4" t="s">
+      <c r="B105" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E104" s="4" t="s">
+      <c r="C105" s="5"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="5"/>
+      <c r="L105" s="5"/>
+      <c r="M105" s="5"/>
+      <c r="N105" s="5"/>
+      <c r="O105" s="5"/>
+      <c r="P105" s="5"/>
+      <c r="Q105" s="5"/>
+      <c r="R105" s="5"/>
+      <c r="S105" s="5"/>
+      <c r="T105" s="5"/>
+    </row>
+    <row r="106" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="B106" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G104" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="H104" s="4" t="s">
+      <c r="D106" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="I104" s="4" t="s">
+      <c r="E106" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="J104" s="4" t="s">
+      <c r="F106" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="K104" s="4" t="s">
+      <c r="G106" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="L104" s="4" t="s">
+      <c r="H106" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="M104" s="4" t="s">
+      <c r="I106" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="N104" s="4" t="s">
+      <c r="J106" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="O104" s="4" t="s">
+      <c r="K106" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="P104" s="4" t="s">
+      <c r="L106" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="Q104" s="4" t="s">
+      <c r="M106" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="R104" s="4" t="s">
+      <c r="N106" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="S104" s="4" t="s">
+      <c r="O106" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="T104" s="4" t="s">
+      <c r="P106" s="4" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="1" t="s">
+      <c r="Q106" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="R106" s="4" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="1" t="s">
+      <c r="S106" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="B106" s="4" t="s">
+      <c r="T106" s="4" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="5" t="s">
+    <row r="107" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="s">
         <v>260</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
-      <c r="K107" s="5"/>
-      <c r="L107" s="5"/>
-      <c r="M107" s="5"/>
-      <c r="N107" s="5"/>
-      <c r="O107" s="5"/>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-    </row>
-    <row r="108" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="108" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B108" s="7" t="s">
+      <c r="B108" s="4" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="1" t="s">
+    <row r="109" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="B109" s="7" t="s">
+      <c r="B109" s="4" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C109" s="5"/>
+      <c r="D109" s="5"/>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5"/>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="5"/>
+      <c r="L109" s="5"/>
+      <c r="M109" s="5"/>
+      <c r="N109" s="5"/>
+      <c r="O109" s="5"/>
+      <c r="P109" s="5"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+    </row>
+    <row r="110" customFormat="false" ht="44.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B110" s="4" t="s">
+      <c r="B110" s="7" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="54.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="G111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="H111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="K111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="L111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="M111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="O111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="P111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="R111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="S111" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="T111" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="112" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
         <v>270</v>
       </c>
@@ -5563,86 +5585,101 @@
         <v>271</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="B113" s="4" t="s">
+      <c r="B113" s="1" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="R113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S113" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="T113" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="4" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="4" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B116" s="4" t="s">
+      <c r="B116" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B117" s="4" t="s">
+      <c r="B117" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="AX117" s="3"/>
-      <c r="AY117" s="3"/>
-      <c r="AZ117" s="3"/>
-      <c r="BA117" s="3"/>
-      <c r="BB117" s="3"/>
-      <c r="BC117" s="3"/>
-      <c r="BD117" s="3"/>
-      <c r="BE117" s="3"/>
-      <c r="BF117" s="3"/>
-      <c r="BG117" s="3"/>
-      <c r="BH117" s="3"/>
-      <c r="BI117" s="3"/>
-      <c r="BJ117" s="3"/>
-      <c r="BK117" s="3"/>
-      <c r="BL117" s="3"/>
-      <c r="BM117" s="3"/>
-      <c r="BN117" s="3"/>
-      <c r="BO117" s="3"/>
-      <c r="BP117" s="3"/>
-      <c r="BQ117" s="3"/>
-      <c r="BR117" s="3"/>
-      <c r="BS117" s="3"/>
-      <c r="BT117" s="3"/>
-      <c r="BU117" s="3"/>
-      <c r="BV117" s="3"/>
-      <c r="BW117" s="3"/>
-      <c r="BX117" s="3"/>
-      <c r="BY117" s="3"/>
-      <c r="BZ117" s="3"/>
-      <c r="CA117" s="3"/>
-      <c r="CB117" s="3"/>
-      <c r="CC117" s="3"/>
-      <c r="CD117" s="3"/>
-      <c r="CE117" s="3"/>
-      <c r="CF117" s="3"/>
-      <c r="CG117" s="3"/>
-      <c r="CH117" s="3"/>
-      <c r="CI117" s="3"/>
-      <c r="CJ117" s="3"/>
-    </row>
-    <row r="118" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="118" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
         <v>282</v>
       </c>
@@ -5650,7 +5687,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
         <v>284</v>
       </c>
@@ -5697,142 +5734,197 @@
       <c r="CI119" s="3"/>
       <c r="CJ119" s="3"/>
     </row>
-    <row r="120" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
         <v>286</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="AX120" s="3"/>
-      <c r="AY120" s="3"/>
-      <c r="AZ120" s="3"/>
-      <c r="BA120" s="3"/>
-      <c r="BB120" s="3"/>
-      <c r="BC120" s="3"/>
-      <c r="BD120" s="3"/>
-      <c r="BE120" s="3"/>
-      <c r="BF120" s="3"/>
-      <c r="BG120" s="3"/>
-      <c r="BH120" s="3"/>
-      <c r="BI120" s="3"/>
-      <c r="BJ120" s="3"/>
-      <c r="BK120" s="3"/>
-      <c r="BL120" s="3"/>
-      <c r="BM120" s="3"/>
-      <c r="BN120" s="3"/>
-      <c r="BO120" s="3"/>
-      <c r="BP120" s="3"/>
-      <c r="BQ120" s="3"/>
-      <c r="BR120" s="3"/>
-      <c r="BS120" s="3"/>
-      <c r="BT120" s="3"/>
-      <c r="BU120" s="3"/>
-      <c r="BV120" s="3"/>
-      <c r="BW120" s="3"/>
-      <c r="BX120" s="3"/>
-      <c r="BY120" s="3"/>
-      <c r="BZ120" s="3"/>
-      <c r="CA120" s="3"/>
-      <c r="CB120" s="3"/>
-      <c r="CC120" s="3"/>
-      <c r="CD120" s="3"/>
-      <c r="CE120" s="3"/>
-      <c r="CF120" s="3"/>
-      <c r="CG120" s="3"/>
-      <c r="CH120" s="3"/>
-      <c r="CI120" s="3"/>
-      <c r="CJ120" s="3"/>
-    </row>
-    <row r="121" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="121" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
         <v>288</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C121" s="1"/>
-      <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="1"/>
-      <c r="H121" s="1"/>
-      <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-      <c r="K121" s="1"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
-      <c r="N121" s="1"/>
-      <c r="O121" s="1"/>
-      <c r="P121" s="1"/>
-      <c r="Q121" s="1"/>
-      <c r="R121" s="1"/>
-      <c r="S121" s="1"/>
-      <c r="T121" s="1"/>
-      <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
-      <c r="W121" s="1"/>
-      <c r="X121" s="1"/>
-      <c r="Y121" s="1"/>
-      <c r="Z121" s="1"/>
-      <c r="AA121" s="1"/>
-      <c r="AB121" s="1"/>
-      <c r="AC121" s="1"/>
-      <c r="AD121" s="1"/>
-      <c r="AE121" s="1"/>
-      <c r="AF121" s="1"/>
-      <c r="AG121" s="1"/>
-      <c r="AH121" s="1"/>
-      <c r="AI121" s="1"/>
-      <c r="AJ121" s="1"/>
-      <c r="AK121" s="1"/>
-      <c r="AL121" s="1"/>
-      <c r="AM121" s="1"/>
-      <c r="AN121" s="1"/>
-      <c r="AO121" s="1"/>
-      <c r="AP121" s="1"/>
-      <c r="AQ121" s="1"/>
-      <c r="AR121" s="1"/>
-      <c r="AS121" s="1"/>
-      <c r="AT121" s="1"/>
-      <c r="AU121" s="1"/>
-      <c r="AV121" s="1"/>
-      <c r="AW121" s="1"/>
-    </row>
-    <row r="122" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>289</v>
+      </c>
+      <c r="AX121" s="3"/>
+      <c r="AY121" s="3"/>
+      <c r="AZ121" s="3"/>
+      <c r="BA121" s="3"/>
+      <c r="BB121" s="3"/>
+      <c r="BC121" s="3"/>
+      <c r="BD121" s="3"/>
+      <c r="BE121" s="3"/>
+      <c r="BF121" s="3"/>
+      <c r="BG121" s="3"/>
+      <c r="BH121" s="3"/>
+      <c r="BI121" s="3"/>
+      <c r="BJ121" s="3"/>
+      <c r="BK121" s="3"/>
+      <c r="BL121" s="3"/>
+      <c r="BM121" s="3"/>
+      <c r="BN121" s="3"/>
+      <c r="BO121" s="3"/>
+      <c r="BP121" s="3"/>
+      <c r="BQ121" s="3"/>
+      <c r="BR121" s="3"/>
+      <c r="BS121" s="3"/>
+      <c r="BT121" s="3"/>
+      <c r="BU121" s="3"/>
+      <c r="BV121" s="3"/>
+      <c r="BW121" s="3"/>
+      <c r="BX121" s="3"/>
+      <c r="BY121" s="3"/>
+      <c r="BZ121" s="3"/>
+      <c r="CA121" s="3"/>
+      <c r="CB121" s="3"/>
+      <c r="CC121" s="3"/>
+      <c r="CD121" s="3"/>
+      <c r="CE121" s="3"/>
+      <c r="CF121" s="3"/>
+      <c r="CG121" s="3"/>
+      <c r="CH121" s="3"/>
+      <c r="CI121" s="3"/>
+      <c r="CJ121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="105.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291</v>
+      </c>
+      <c r="AX122" s="3"/>
+      <c r="AY122" s="3"/>
+      <c r="AZ122" s="3"/>
+      <c r="BA122" s="3"/>
+      <c r="BB122" s="3"/>
+      <c r="BC122" s="3"/>
+      <c r="BD122" s="3"/>
+      <c r="BE122" s="3"/>
+      <c r="BF122" s="3"/>
+      <c r="BG122" s="3"/>
+      <c r="BH122" s="3"/>
+      <c r="BI122" s="3"/>
+      <c r="BJ122" s="3"/>
+      <c r="BK122" s="3"/>
+      <c r="BL122" s="3"/>
+      <c r="BM122" s="3"/>
+      <c r="BN122" s="3"/>
+      <c r="BO122" s="3"/>
+      <c r="BP122" s="3"/>
+      <c r="BQ122" s="3"/>
+      <c r="BR122" s="3"/>
+      <c r="BS122" s="3"/>
+      <c r="BT122" s="3"/>
+      <c r="BU122" s="3"/>
+      <c r="BV122" s="3"/>
+      <c r="BW122" s="3"/>
+      <c r="BX122" s="3"/>
+      <c r="BY122" s="3"/>
+      <c r="BZ122" s="3"/>
+      <c r="CA122" s="3"/>
+      <c r="CB122" s="3"/>
+      <c r="CC122" s="3"/>
+      <c r="CD122" s="3"/>
+      <c r="CE122" s="3"/>
+      <c r="CF122" s="3"/>
+      <c r="CG122" s="3"/>
+      <c r="CH122" s="3"/>
+      <c r="CI122" s="3"/>
+      <c r="CJ122" s="3"/>
+    </row>
+    <row r="123" s="3" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="B123" s="8" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
+      <c r="V123" s="1"/>
+      <c r="W123" s="1"/>
+      <c r="X123" s="1"/>
+      <c r="Y123" s="1"/>
+      <c r="Z123" s="1"/>
+      <c r="AA123" s="1"/>
+      <c r="AB123" s="1"/>
+      <c r="AC123" s="1"/>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="1"/>
+      <c r="AF123" s="1"/>
+      <c r="AG123" s="1"/>
+      <c r="AH123" s="1"/>
+      <c r="AI123" s="1"/>
+      <c r="AJ123" s="1"/>
+      <c r="AK123" s="1"/>
+      <c r="AL123" s="1"/>
+      <c r="AM123" s="1"/>
+      <c r="AN123" s="1"/>
+      <c r="AO123" s="1"/>
+      <c r="AP123" s="1"/>
+      <c r="AQ123" s="1"/>
+      <c r="AR123" s="1"/>
+      <c r="AS123" s="1"/>
+      <c r="AT123" s="1"/>
+      <c r="AU123" s="1"/>
+      <c r="AV123" s="1"/>
+      <c r="AW123" s="1"/>
+    </row>
+    <row r="124" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B124" s="8" t="s">
+      <c r="B124" s="4" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="69.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
         <v>295</v>
       </c>
-      <c r="B125" s="4" t="s">
+      <c r="B125" s="8" t="s">
         <v>296</v>
       </c>
     </row>
+    <row r="126" customFormat="false" ht="40.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:T124"/>
+  <autoFilter ref="A2:T126"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
